--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="296">
   <si>
     <t>URL</t>
   </si>
@@ -900,6 +900,27 @@
   </si>
   <si>
     <t>Ozone@123#</t>
+  </si>
+  <si>
+    <t>CAServices/DID/RunningDIDs.php?userName=&amp;apiKey=</t>
+  </si>
+  <si>
+    <t>KK7ae953b8897d956127d5fa84878f6a4f</t>
+  </si>
+  <si>
+    <t>mdinesh_qA</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":["914066588150","914066588222"]}</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":["914066588222"]}</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":["8222","9140308837801","91406","914066588222","91919191"]}</t>
+  </si>
+  <si>
+    <t>{"status":"error","message":"max limit exceeded"}</t>
   </si>
 </sst>
 </file>
@@ -909,7 +930,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -958,6 +979,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -980,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1016,6 +1049,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1440,10 +1475,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1500,12 +1535,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,15 +1769,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="7" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="34" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="52" x14ac:dyDescent="0.3">
@@ -4507,11 +4542,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -4644,9 +4679,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -5741,14 +5776,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
+    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -5808,26 +5843,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="17" width="11.54296875" collapsed="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="25" width="11.54296875" collapsed="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.54296875" collapsed="1"/>
-    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
+    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="15" max="17" width="11.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="19" max="25" width="11.54296875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="27" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="40" max="41" width="11.54296875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -6131,13 +6166,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="11.54296875" collapsed="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="2" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="4" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="9" max="15" width="11.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
@@ -6271,11 +6306,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="2" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="4" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -6345,12 +6380,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.54296875" collapsed="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="2" width="11.54296875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.7265625" collapsed="true"/>
+    <col min="6" max="6" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
@@ -6440,11 +6475,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6506,12 +6541,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6583,27 +6618,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.54296875" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="11.54296875" collapsed="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="4" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" width="11.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="11" max="12" width="11.54296875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="38.1796875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="14" width="39.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">
@@ -6656,55 +6691,40 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>152</v>
-      </c>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>157</v>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="5"/>
+      <c r="P2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="394">
   <si>
     <t>URL</t>
   </si>
@@ -239,9 +239,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>/home/santosh/Downloads/data_upload_sample.xls</t>
-  </si>
-  <si>
     <t>sannn9</t>
   </si>
   <si>
@@ -326,601 +323,898 @@
     <t>Add</t>
   </si>
   <si>
-    <t>Ozo99</t>
-  </si>
-  <si>
-    <t>Ozo</t>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Name*</t>
+  </si>
+  <si>
+    <t>new name for edit</t>
+  </si>
+  <si>
+    <t>Phone Number*</t>
+  </si>
+  <si>
+    <t>New Phone Number* for Edit</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>95535</t>
+  </si>
+  <si>
+    <t>Transfer Number*</t>
+  </si>
+  <si>
+    <t>New Transfer Number* for Edit</t>
+  </si>
+  <si>
+    <t>santuu2</t>
+  </si>
+  <si>
+    <t>santuuu</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Reason*</t>
+  </si>
+  <si>
+    <t>Reason for edit*</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>selenium123</t>
+  </si>
+  <si>
+    <t>selenium1234</t>
+  </si>
+  <si>
+    <t>pause reason*</t>
+  </si>
+  <si>
+    <t>Pause reason for edit*</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>reason11</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>reason1123</t>
+  </si>
+  <si>
+    <t>12:34:56</t>
+  </si>
+  <si>
+    <t>API server</t>
+  </si>
+  <si>
+    <t>API URL</t>
+  </si>
+  <si>
+    <t>ApiKey</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>CampaignName</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>UCID</t>
+  </si>
+  <si>
+    <t>PhoneName</t>
+  </si>
+  <si>
+    <t>DID number</t>
+  </si>
+  <si>
+    <t>uui</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>Need to make Agent Available?</t>
+  </si>
+  <si>
+    <t>Need to make Campaign Available?</t>
+  </si>
+  <si>
+    <t>Expected response</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>http://172.16.15.210/</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>KKfdb819a5c849d829cd000819d4a4463b</t>
+  </si>
+  <si>
+    <t>santosh1</t>
+  </si>
+  <si>
+    <t>san_tz_inbound</t>
+  </si>
+  <si>
+    <t>9553578721</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>{"ucid":"9189158339772211","status":"queued successfully"}</t>
+  </si>
+  <si>
+    <t>{"status":"Agent is not available"}</t>
+  </si>
+  <si>
+    <t>Client side OnBusy</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Agentwise</t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Server side OnBusy</t>
+  </si>
+  <si>
+    <t>Predictive</t>
+  </si>
+  <si>
+    <t>Skillwise</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Client&amp;Server</t>
+  </si>
+  <si>
+    <t>Plugin</t>
+  </si>
+  <si>
+    <t>inbound</t>
+  </si>
+  <si>
+    <t>sannn1</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>padma</t>
+  </si>
+  <si>
+    <t>sdnv jsj</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>01:02:03</t>
+  </si>
+  <si>
+    <t>04:05:06</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>sans</t>
+  </si>
+  <si>
+    <t>urlll</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>sant</t>
+  </si>
+  <si>
+    <t>sannn3</t>
+  </si>
+  <si>
+    <t>skillwise</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>num_skill</t>
+  </si>
+  <si>
+    <t>sannn4</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>number_agentid</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>WAV</t>
+  </si>
+  <si>
+    <t>sannn5</t>
+  </si>
+  <si>
+    <t>12345699</t>
+  </si>
+  <si>
+    <t>sannn6</t>
+  </si>
+  <si>
+    <t>123459</t>
+  </si>
+  <si>
+    <t>sannn7</t>
+  </si>
+  <si>
+    <t>999999999</t>
+  </si>
+  <si>
+    <t>sannn8</t>
+  </si>
+  <si>
+    <t>99999999</t>
+  </si>
+  <si>
+    <t>http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t>mdinesh_qa</t>
+  </si>
+  <si>
+    <t>dinesh@123#</t>
+  </si>
+  <si>
+    <t>16 server</t>
+  </si>
+  <si>
+    <t>http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t>Staging 88</t>
+  </si>
+  <si>
+    <t>http://10.1.2.88:8080/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>Staging 76</t>
+  </si>
+  <si>
+    <t>http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t>http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
+  </si>
+  <si>
+    <t>http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>https://api1.cloudagent.in/</t>
+  </si>
+  <si>
+    <t>&lt;status&gt;All parameters are mandatory&lt;/status&gt;</t>
+  </si>
+  <si>
+    <t>{"status":"All parameters are mandatory"}</t>
+  </si>
+  <si>
+    <t>NewInbound2</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_keY&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>KK11820a702e043973e935fe8e2ef9f457</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_key=&amp;usernamE&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;AgentID&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignNamE&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumbeR&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>{"status":"queued successfully"}</t>
+  </si>
+  <si>
+    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
+  </si>
+  <si>
+    <t>9959177442</t>
+  </si>
+  <si>
+    <t>santoshPH1</t>
+  </si>
+  <si>
+    <t>914030883780</t>
+  </si>
+  <si>
+    <t>testi1</t>
+  </si>
+  <si>
+    <t>{    "message": "9019158349792851",    "status": "queued"}</t>
+  </si>
+  <si>
+    <t>{"message":"9019158349938261","status":"queued"}</t>
+  </si>
+  <si>
+    <t>{    "message": "Authentication failed.",    "status": "error"}</t>
+  </si>
+  <si>
+    <t>{"message":"Authentication failed.","status":"error"}</t>
+  </si>
+  <si>
+    <t>{    "message": "Phone name not found.",    "status": "error"}</t>
+  </si>
+  <si>
+    <t>{"message":"Phone name not found.","status":"error"}</t>
+  </si>
+  <si>
+    <t>{    "message": "Invalid campaign DID",    "status": "error"}</t>
+  </si>
+  <si>
+    <t>{"message":"Invalid campaign DID","status":"error"}</t>
+  </si>
+  <si>
+    <t>CAServices/PhoneManualDial.php?apiKeY=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
+  </si>
+  <si>
+    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userNamE=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneNamE&amp;did=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneName&amp;diD&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Force_Complete</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Add_Campaign</t>
+  </si>
+  <si>
+    <t>New campaign name</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>newcamname</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Action *</t>
+  </si>
+  <si>
+    <t>Delete_data</t>
+  </si>
+  <si>
+    <t>Delete_Campaign</t>
+  </si>
+  <si>
+    <t>Add_data(Path must)</t>
+  </si>
+  <si>
+    <t>https://enterprise.getkookoo.com/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>enterprise testing</t>
+  </si>
+  <si>
+    <t>enterprise production</t>
+  </si>
+  <si>
+    <t>https://entagent1.getkookoo.com/OCCDV2/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>Ozone@123#</t>
+  </si>
+  <si>
+    <t>CAServices/DID/RunningDIDs.php?userName=&amp;apiKey=</t>
+  </si>
+  <si>
+    <t>KK7ae953b8897d956127d5fa84878f6a4f</t>
+  </si>
+  <si>
+    <t>mdinesh_qA</t>
+  </si>
+  <si>
+    <t>{"status":"success","data":["8222","9140308837801","91406","914066588222","91919191"]}</t>
+  </si>
+  <si>
+    <t>http://172.16.15.23/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>qa_testing</t>
+  </si>
+  <si>
+    <t>hy67GN9MxR</t>
+  </si>
+  <si>
+    <t>Agent1</t>
+  </si>
+  <si>
+    <t>Agent2</t>
+  </si>
+  <si>
+    <t>Agent3</t>
+  </si>
+  <si>
+    <t>Agent4</t>
+  </si>
+  <si>
+    <t>Agent5</t>
+  </si>
+  <si>
+    <t>Agent6</t>
+  </si>
+  <si>
+    <t>Agent7</t>
+  </si>
+  <si>
+    <t>Agent8</t>
+  </si>
+  <si>
+    <t>Agent9</t>
+  </si>
+  <si>
+    <t>Agent10</t>
+  </si>
+  <si>
+    <t>Agent11</t>
+  </si>
+  <si>
+    <t>Agent12</t>
+  </si>
+  <si>
+    <t>Agent13</t>
+  </si>
+  <si>
+    <t>Agent14</t>
+  </si>
+  <si>
+    <t>Agent15</t>
+  </si>
+  <si>
+    <t>Agent16</t>
+  </si>
+  <si>
+    <t>Agent17</t>
+  </si>
+  <si>
+    <t>Agent18</t>
+  </si>
+  <si>
+    <t>Agent19</t>
+  </si>
+  <si>
+    <t>Agent20</t>
+  </si>
+  <si>
+    <t>Agent21</t>
+  </si>
+  <si>
+    <t>Agent22</t>
+  </si>
+  <si>
+    <t>Agent23</t>
+  </si>
+  <si>
+    <t>Agent24</t>
+  </si>
+  <si>
+    <t>Agent25</t>
+  </si>
+  <si>
+    <t>Agent26</t>
+  </si>
+  <si>
+    <t>Agent27</t>
+  </si>
+  <si>
+    <t>Agent28</t>
+  </si>
+  <si>
+    <t>Agent29</t>
+  </si>
+  <si>
+    <t>Agent30</t>
+  </si>
+  <si>
+    <t>Agent31</t>
+  </si>
+  <si>
+    <t>Agent32</t>
+  </si>
+  <si>
+    <t>Agent33</t>
+  </si>
+  <si>
+    <t>Agent34</t>
+  </si>
+  <si>
+    <t>Agent35</t>
+  </si>
+  <si>
+    <t>Agent36</t>
+  </si>
+  <si>
+    <t>Agent37</t>
+  </si>
+  <si>
+    <t>Agent38</t>
+  </si>
+  <si>
+    <t>Agent39</t>
+  </si>
+  <si>
+    <t>Agent40</t>
+  </si>
+  <si>
+    <t>Agent41</t>
+  </si>
+  <si>
+    <t>Agent42</t>
+  </si>
+  <si>
+    <t>Agent43</t>
+  </si>
+  <si>
+    <t>Agent44</t>
+  </si>
+  <si>
+    <t>Agent45</t>
+  </si>
+  <si>
+    <t>Agent46</t>
+  </si>
+  <si>
+    <t>Agent47</t>
+  </si>
+  <si>
+    <t>Agent48</t>
+  </si>
+  <si>
+    <t>Agent49</t>
+  </si>
+  <si>
+    <t>Agent50</t>
+  </si>
+  <si>
+    <t>Agent51</t>
+  </si>
+  <si>
+    <t>Agent52</t>
+  </si>
+  <si>
+    <t>Agent53</t>
+  </si>
+  <si>
+    <t>Agent54</t>
+  </si>
+  <si>
+    <t>Agent55</t>
+  </si>
+  <si>
+    <t>Agent56</t>
+  </si>
+  <si>
+    <t>Agent57</t>
+  </si>
+  <si>
+    <t>Agent58</t>
+  </si>
+  <si>
+    <t>Agent59</t>
+  </si>
+  <si>
+    <t>Agent60</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Password is required.</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>ozo99</t>
-  </si>
-  <si>
-    <t>agentid Ozo99 is not available to edit</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>no records found with the agentid: Ozo99</t>
-  </si>
-  <si>
-    <t>Name*</t>
-  </si>
-  <si>
-    <t>new name for edit</t>
-  </si>
-  <si>
-    <t>Phone Number*</t>
-  </si>
-  <si>
-    <t>New Phone Number* for Edit</t>
-  </si>
-  <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>Ozone</t>
-  </si>
-  <si>
-    <t>95535</t>
-  </si>
-  <si>
-    <t>Transfer Number*</t>
-  </si>
-  <si>
-    <t>New Transfer Number* for Edit</t>
-  </si>
-  <si>
-    <t>santuu2</t>
-  </si>
-  <si>
-    <t>santuuu</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Reason*</t>
-  </si>
-  <si>
-    <t>Reason for edit*</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>selenium123</t>
-  </si>
-  <si>
-    <t>selenium1234</t>
-  </si>
-  <si>
-    <t>pause reason*</t>
-  </si>
-  <si>
-    <t>Pause reason for edit*</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>reason11</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
-    <t>reason1123</t>
-  </si>
-  <si>
-    <t>12:34:56</t>
-  </si>
-  <si>
-    <t>API server</t>
-  </si>
-  <si>
-    <t>API URL</t>
-  </si>
-  <si>
-    <t>ApiKey</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>AgentId</t>
-  </si>
-  <si>
-    <t>CampaignName</t>
-  </si>
-  <si>
-    <t>CustomerNumber</t>
-  </si>
-  <si>
-    <t>UCID</t>
-  </si>
-  <si>
-    <t>PhoneName</t>
-  </si>
-  <si>
-    <t>DID number</t>
-  </si>
-  <si>
-    <t>uui</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>Need to make Agent Available?</t>
-  </si>
-  <si>
-    <t>Need to make Campaign Available?</t>
-  </si>
-  <si>
-    <t>Expected response</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>http://172.16.15.210/</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>KKfdb819a5c849d829cd000819d4a4463b</t>
-  </si>
-  <si>
-    <t>santosh1</t>
-  </si>
-  <si>
-    <t>san_tz_inbound</t>
-  </si>
-  <si>
-    <t>9553578721</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>{"ucid":"9189158339772211","status":"queued successfully"}</t>
-  </si>
-  <si>
-    <t>{"status":"Agent is not available"}</t>
-  </si>
-  <si>
-    <t>Client side OnBusy</t>
-  </si>
-  <si>
-    <t>Progressive</t>
-  </si>
-  <si>
-    <t>Agentwise</t>
-  </si>
-  <si>
-    <t>Toolbar</t>
-  </si>
-  <si>
-    <t>IVR</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Server side OnBusy</t>
-  </si>
-  <si>
-    <t>Predictive</t>
-  </si>
-  <si>
-    <t>Skillwise</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Client&amp;Server</t>
-  </si>
-  <si>
-    <t>Plugin</t>
-  </si>
-  <si>
-    <t>inbound</t>
-  </si>
-  <si>
-    <t>sannn1</t>
-  </si>
-  <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>padma</t>
-  </si>
-  <si>
-    <t>sdnv jsj</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>01:02:03</t>
-  </si>
-  <si>
-    <t>04:05:06</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>sans</t>
-  </si>
-  <si>
-    <t>urlll</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>sant</t>
-  </si>
-  <si>
-    <t>sannn3</t>
-  </si>
-  <si>
-    <t>skillwise</t>
-  </si>
-  <si>
-    <t>1234567899</t>
-  </si>
-  <si>
-    <t>num_skill</t>
-  </si>
-  <si>
-    <t>/home/santosh/Downloads/data_upload_sample_skill.xls</t>
-  </si>
-  <si>
-    <t>sannn4</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>number_agentid</t>
-  </si>
-  <si>
-    <t>/home/santosh/Downloads/data_upload_sample_agent.xls</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>WAV</t>
-  </si>
-  <si>
-    <t>sannn5</t>
-  </si>
-  <si>
-    <t>12345699</t>
-  </si>
-  <si>
-    <t>sannn6</t>
-  </si>
-  <si>
-    <t>123459</t>
-  </si>
-  <si>
-    <t>sannn7</t>
-  </si>
-  <si>
-    <t>999999999</t>
-  </si>
-  <si>
-    <t>sannn8</t>
-  </si>
-  <si>
-    <t>99999999</t>
-  </si>
-  <si>
-    <t>http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi2</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi3</t>
-  </si>
-  <si>
-    <t>11111112</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi4</t>
-  </si>
-  <si>
-    <t>11111113</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi5</t>
-  </si>
-  <si>
-    <t>11111114</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi6</t>
-  </si>
-  <si>
-    <t>11111115</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi7</t>
-  </si>
-  <si>
-    <t>11111116</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi8</t>
-  </si>
-  <si>
-    <t>11111117</t>
-  </si>
-  <si>
-    <t>sannn1_inbound_newUi9</t>
-  </si>
-  <si>
-    <t>11111118</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t>mdinesh_qa</t>
-  </si>
-  <si>
-    <t>dinesh@123#</t>
-  </si>
-  <si>
-    <t>16 server</t>
-  </si>
-  <si>
-    <t>http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t>Staging 88</t>
-  </si>
-  <si>
-    <t>http://10.1.2.88:8080/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t>Staging 76</t>
-  </si>
-  <si>
-    <t>http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t>http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t>https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
-  </si>
-  <si>
-    <t>http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t>https://api1.cloudagent.in/</t>
-  </si>
-  <si>
-    <t>&lt;status&gt;All parameters are mandatory&lt;/status&gt;</t>
-  </si>
-  <si>
-    <t>{"status":"All parameters are mandatory"}</t>
-  </si>
-  <si>
-    <t>NewInbound2</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_keY&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>KK11820a702e043973e935fe8e2ef9f457</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_key=&amp;usernamE&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;AgentID&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignNamE&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumbeR&amp;UCID=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>{"status":"queued successfully"}</t>
-  </si>
-  <si>
-    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
-  </si>
-  <si>
-    <t>9959177442</t>
-  </si>
-  <si>
-    <t>santoshPH1</t>
-  </si>
-  <si>
-    <t>914030883780</t>
-  </si>
-  <si>
-    <t>testi1</t>
-  </si>
-  <si>
-    <t>{    "message": "9019158349792851",    "status": "queued"}</t>
-  </si>
-  <si>
-    <t>{"message":"9019158349938261","status":"queued"}</t>
-  </si>
-  <si>
-    <t>{    "message": "Authentication failed.",    "status": "error"}</t>
-  </si>
-  <si>
-    <t>{"message":"Authentication failed.","status":"error"}</t>
-  </si>
-  <si>
-    <t>{    "message": "Phone name not found.",    "status": "error"}</t>
-  </si>
-  <si>
-    <t>{"message":"Phone name not found.","status":"error"}</t>
-  </si>
-  <si>
-    <t>{    "message": "Invalid campaign DID",    "status": "error"}</t>
-  </si>
-  <si>
-    <t>{"message":"Invalid campaign DID","status":"error"}</t>
-  </si>
-  <si>
-    <t>CAServices/PhoneManualDial.php?apiKeY=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
-  </si>
-  <si>
-    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userNamE=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneNamE&amp;did=&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneName&amp;diD&amp;uui=&amp;format=</t>
-  </si>
-  <si>
-    <t>C:\Users\santosh\Downloads\data_upload_sample_nonagent.xls</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Force_Complete</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Add_Campaign</t>
-  </si>
-  <si>
-    <t>New campaign name</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>newcamname</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Action *</t>
-  </si>
-  <si>
-    <t>Delete_data</t>
-  </si>
-  <si>
-    <t>Delete_Campaign</t>
-  </si>
-  <si>
-    <t>Add_data(Path must)</t>
-  </si>
-  <si>
-    <t>https://enterprise.getkookoo.com/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t>enterprise testing</t>
-  </si>
-  <si>
-    <t>enterprise production</t>
-  </si>
-  <si>
-    <t>https://entagent1.getkookoo.com/OCCDV2/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t>sele</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Campaign sannn1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>https://agent2.cloudagent.in/OCCDV2/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t>Ozone@123#</t>
-  </si>
-  <si>
-    <t>CAServices/DID/RunningDIDs.php?userName=&amp;apiKey=</t>
-  </si>
-  <si>
-    <t>KK7ae953b8897d956127d5fa84878f6a4f</t>
-  </si>
-  <si>
-    <t>mdinesh_qA</t>
-  </si>
-  <si>
-    <t>{"status":"success","data":["914066588150","914066588222"]}</t>
-  </si>
-  <si>
-    <t>{"status":"success","data":["914066588222"]}</t>
-  </si>
-  <si>
-    <t>{"status":"success","data":["8222","9140308837801","91406","914066588222","91919191"]}</t>
-  </si>
-  <si>
-    <t>{"status":"error","message":"max limit exceeded"}</t>
+    <t>20102</t>
+  </si>
+  <si>
+    <t>20103</t>
+  </si>
+  <si>
+    <t>20104</t>
+  </si>
+  <si>
+    <t>20105</t>
+  </si>
+  <si>
+    <t>20106</t>
+  </si>
+  <si>
+    <t>20107</t>
+  </si>
+  <si>
+    <t>20108</t>
+  </si>
+  <si>
+    <t>20109</t>
+  </si>
+  <si>
+    <t>20110</t>
+  </si>
+  <si>
+    <t>20111</t>
+  </si>
+  <si>
+    <t>20112</t>
+  </si>
+  <si>
+    <t>20113</t>
+  </si>
+  <si>
+    <t>20114</t>
+  </si>
+  <si>
+    <t>20115</t>
+  </si>
+  <si>
+    <t>20116</t>
+  </si>
+  <si>
+    <t>20117</t>
+  </si>
+  <si>
+    <t>20118</t>
+  </si>
+  <si>
+    <t>20119</t>
+  </si>
+  <si>
+    <t>20120</t>
+  </si>
+  <si>
+    <t>20121</t>
+  </si>
+  <si>
+    <t>20122</t>
+  </si>
+  <si>
+    <t>20123</t>
+  </si>
+  <si>
+    <t>20124</t>
+  </si>
+  <si>
+    <t>20125</t>
+  </si>
+  <si>
+    <t>20126</t>
+  </si>
+  <si>
+    <t>20127</t>
+  </si>
+  <si>
+    <t>20128</t>
+  </si>
+  <si>
+    <t>20129</t>
+  </si>
+  <si>
+    <t>20130</t>
+  </si>
+  <si>
+    <t>20131</t>
+  </si>
+  <si>
+    <t>20132</t>
+  </si>
+  <si>
+    <t>20133</t>
+  </si>
+  <si>
+    <t>20134</t>
+  </si>
+  <si>
+    <t>20135</t>
+  </si>
+  <si>
+    <t>20136</t>
+  </si>
+  <si>
+    <t>20137</t>
+  </si>
+  <si>
+    <t>20138</t>
+  </si>
+  <si>
+    <t>20139</t>
+  </si>
+  <si>
+    <t>20140</t>
+  </si>
+  <si>
+    <t>20141</t>
+  </si>
+  <si>
+    <t>20142</t>
+  </si>
+  <si>
+    <t>20143</t>
+  </si>
+  <si>
+    <t>20144</t>
+  </si>
+  <si>
+    <t>20145</t>
+  </si>
+  <si>
+    <t>20146</t>
+  </si>
+  <si>
+    <t>20147</t>
+  </si>
+  <si>
+    <t>20148</t>
+  </si>
+  <si>
+    <t>20149</t>
+  </si>
+  <si>
+    <t>20150</t>
+  </si>
+  <si>
+    <t>20151</t>
+  </si>
+  <si>
+    <t>20152</t>
+  </si>
+  <si>
+    <t>20153</t>
+  </si>
+  <si>
+    <t>20154</t>
+  </si>
+  <si>
+    <t>20155</t>
+  </si>
+  <si>
+    <t>20156</t>
+  </si>
+  <si>
+    <t>20157</t>
+  </si>
+  <si>
+    <t>20158</t>
+  </si>
+  <si>
+    <t>20159</t>
+  </si>
+  <si>
+    <t>20160</t>
+  </si>
+  <si>
+    <t>staging 144</t>
+  </si>
+  <si>
+    <t>http://10.1.2.144:8080/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>http://10.1.2.144:8080/AgentPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>C:\Users\santosh\Documents\CloudAgent\src\main\java\com\CA\qa\TestData\data_upload_sample_nonagent.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\santosh\Documents\CloudAgent\src\main\java\com\CA\qa\TestData\data_upload_sample_skill.xls</t>
+  </si>
+  <si>
+    <t>C:\Users\santosh\Documents\CloudAgent\src\main\java\com\CA\qa\TestData\data_upload_sample_agent.xls</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign sannn5 has been added successfully.</t>
+  </si>
+  <si>
+    <t>12345671</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -991,6 +1285,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1013,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1051,6 +1350,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1470,7 +1775,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1799,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1835,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1549,126 +1854,126 @@
       </c>
       <c r="B1" s="17"/>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1676,44 +1981,44 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -1722,24 +2027,24 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>3</v>
+        <v>386</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -1761,14 +2066,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM29"/>
+  <dimension ref="A1:AMM10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
     <col min="5" max="5" width="11.54296875" collapsed="true"/>
@@ -1780,9 +2086,9 @@
     <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -1791,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -1905,60 +2211,63 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J2" s="9">
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L2" s="9">
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>61</v>
@@ -1973,7 +2282,7 @@
         <v>61</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>61</v>
@@ -1986,13 +2295,13 @@
       </c>
       <c r="AE2" s="11"/>
       <c r="AF2" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>66</v>
@@ -2005,16 +2314,19 @@
         <v>67</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2419,7 @@
         <v>67</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2115,23 +2427,29 @@
       <c r="AO3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2139,22 +2457,22 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
         <v>76</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>77</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
@@ -2163,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W4" s="11" t="s">
         <v>62</v>
@@ -2191,13 +2509,13 @@
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" t="s">
-        <v>81</v>
-      </c>
       <c r="AH4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>66</v>
@@ -2206,10 +2524,10 @@
         <v>66</v>
       </c>
       <c r="AL4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2217,23 +2535,29 @@
       <c r="AO4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" ht="25" x14ac:dyDescent="0.25">
+      <c r="AQ4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2241,22 +2565,22 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>77</v>
-      </c>
-      <c r="P5" t="s">
-        <v>78</v>
       </c>
       <c r="Q5" t="s">
         <v>58</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
         <v>58</v>
@@ -2265,7 +2589,7 @@
         <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5" s="11" t="s">
         <v>61</v>
@@ -2289,17 +2613,17 @@
         <v>61</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AG5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>66</v>
@@ -2308,34 +2632,40 @@
         <v>66</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>194</v>
+        <v>390</v>
       </c>
       <c r="AN5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AO5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2343,22 +2673,22 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
         <v>58</v>
@@ -2367,7 +2697,7 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W6" s="11" t="s">
         <v>62</v>
@@ -2395,13 +2725,13 @@
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" t="s">
-        <v>81</v>
-      </c>
       <c r="AH6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>66</v>
@@ -2411,28 +2741,34 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2440,22 +2776,22 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" t="s">
-        <v>78</v>
       </c>
       <c r="Q7" t="s">
         <v>58</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s">
         <v>58</v>
@@ -2464,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>61</v>
@@ -2492,13 +2828,13 @@
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" t="s">
-        <v>81</v>
-      </c>
       <c r="AH7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>66</v>
@@ -2511,25 +2847,31 @@
         <v>67</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="25" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2537,22 +2879,22 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>77</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
       </c>
       <c r="Q8" t="s">
         <v>58</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -2561,7 +2903,7 @@
         <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" s="11" t="s">
         <v>62</v>
@@ -2585,17 +2927,17 @@
         <v>62</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8" t="s">
         <v>80</v>
       </c>
-      <c r="AG8" t="s">
-        <v>81</v>
-      </c>
       <c r="AH8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>66</v>
@@ -2605,58 +2947,64 @@
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" t="s">
         <v>76</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W9" s="11" t="s">
         <v>62</v>
@@ -2684,13 +3032,13 @@
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" t="s">
-        <v>81</v>
-      </c>
       <c r="AH9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>66</v>
@@ -2703,55 +3051,61 @@
         <v>67</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
       </c>
       <c r="Q10" t="s">
         <v>58</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>62</v>
@@ -2779,13 +3133,13 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG10" t="s">
         <v>80</v>
       </c>
-      <c r="AG10" t="s">
-        <v>81</v>
-      </c>
       <c r="AH10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>66</v>
@@ -2798,1718 +3152,37 @@
         <v>67</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="9">
-        <v>3</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="9">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG11" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH11" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="9">
-        <v>3</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="9">
-        <v>50</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="9">
-        <v>3</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="9">
-        <v>50</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="9">
-        <v>3</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="9">
-        <v>50</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG14" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15" s="9">
-        <v>50</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="9">
-        <v>3</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="9">
-        <v>50</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="9">
-        <v>3</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="9">
-        <v>50</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH17" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="9">
-        <v>3</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L18" s="9">
-        <v>50</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA18" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" t="s">
-        <v>77</v>
-      </c>
-      <c r="P23" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>58</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="T23" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" ht="25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>58</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" t="s">
-        <v>58</v>
-      </c>
-      <c r="V24" t="s">
-        <v>72</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>58</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T25" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" t="s">
-        <v>58</v>
-      </c>
-      <c r="V25" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK25" s="1"/>
-      <c r="AL25" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>271</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>58</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T26" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" t="s">
-        <v>58</v>
-      </c>
-      <c r="V26" t="s">
-        <v>72</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" ht="25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" t="s">
-        <v>72</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD27" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>58</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s">
-        <v>72</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>58</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s">
-        <v>72</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>275</v>
+        <v>388</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE18 W22:AE29">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE10">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E7 E11:E18 E22:E26">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F9 F11:F18 F22:F28">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>SelectDialMethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF18 AF22:AF29">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF10">
       <formula1>SelectDispositionType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R11:S18 R2:R10 R22:R29">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2:R10">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1"/>
-    <hyperlink ref="I28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4524,7 +3197,7 @@
           <x14:formula1>
             <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A22:A29</xm:sqref>
+          <xm:sqref>A2:A10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4551,24 +3224,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -4582,44 +3255,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -4628,15 +3301,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -4645,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4686,60 +3359,60 @@
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4754,16 +3427,16 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="5" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4775,21 +3448,21 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -4800,24 +3473,24 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -4825,525 +3498,525 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="5" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>63</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>63</v>
@@ -5352,414 +4025,414 @@
         <v>63</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="P19" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>63</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="5" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="5" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="5" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5777,7 +4450,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5804,20 +4477,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>287</v>
+      <c r="A2" t="s">
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5837,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5852,14 +4525,19 @@
     <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
     <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
     <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="15" max="17" width="11.54296875" collapsed="true"/>
+    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
+    <col min="17" max="17" width="11.54296875" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
-    <col min="19" max="25" width="11.54296875" collapsed="true"/>
+    <col min="19" max="21" width="11.54296875" collapsed="true"/>
+    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
+    <col min="23" max="25" width="11.54296875" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="27" max="35" width="11.54296875" collapsed="true"/>
+    <col min="27" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
+    <col min="35" max="35" width="11.54296875" collapsed="true"/>
     <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
     <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
     <col min="40" max="41" width="11.54296875" collapsed="true"/>
     <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
     <col min="44" max="1028" width="11.54296875" collapsed="true"/>
@@ -5867,7 +4545,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -5876,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -5908,10 +4586,10 @@
       <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q1" s="8" t="s">
@@ -5929,7 +4607,7 @@
       <c r="U1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="W1" s="8" t="s">
@@ -5962,10 +4640,10 @@
       <c r="AF1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AI1" s="8" t="s">
@@ -5990,7 +4668,7 @@
         <v>47</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>48</v>
@@ -5998,118 +4676,109 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="9">
-        <v>3</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="9">
-        <v>50</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="V2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN2" t="s">
         <v>184</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" t="s">
         <v>185</v>
       </c>
-      <c r="AO2" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6146,7 +4815,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
+            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -6158,11 +4827,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK61"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6177,49 +4844,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>48</v>
@@ -6227,23 +4894,19 @@
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
+      <c r="E2" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
       <c r="K2" t="s">
         <v>63</v>
       </c>
@@ -6260,37 +4923,1904 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
+      <c r="A4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42" t="s">
+        <v>63</v>
+      </c>
+      <c r="M42" t="s">
+        <v>63</v>
+      </c>
+      <c r="N42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" t="s">
+        <v>63</v>
+      </c>
+      <c r="M45" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" t="s">
+        <v>63</v>
+      </c>
+      <c r="N46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M47" t="s">
+        <v>63</v>
+      </c>
+      <c r="N47" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" t="s">
+        <v>63</v>
+      </c>
+      <c r="M48" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="K49" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" t="s">
+        <v>63</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" t="s">
+        <v>63</v>
+      </c>
+      <c r="N50" t="s">
+        <v>63</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" t="s">
+        <v>63</v>
+      </c>
+      <c r="N51" t="s">
+        <v>63</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" t="s">
+        <v>63</v>
+      </c>
+      <c r="N52" t="s">
+        <v>63</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" t="s">
+        <v>63</v>
+      </c>
+      <c r="N53" t="s">
+        <v>63</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K54" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" t="s">
+        <v>63</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K55" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="K56" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" t="s">
+        <v>63</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" t="s">
+        <v>63</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="K58" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" t="s">
+        <v>63</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" t="s">
+        <v>63</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K60" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" t="s">
+        <v>63</v>
+      </c>
+      <c r="M60" t="s">
+        <v>63</v>
+      </c>
+      <c r="N60" t="s">
+        <v>63</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K61" t="s">
+        <v>63</v>
+      </c>
+      <c r="L61" t="s">
+        <v>63</v>
+      </c>
+      <c r="M61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N61" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E61" r:id="rId2" display="Ozone@123#"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6300,9 +6830,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6315,25 +6847,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>48</v>
@@ -6341,25 +6873,1182 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6390,22 +8079,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>48</v>
@@ -6413,48 +8102,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6484,13 +8182,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>48</v>
@@ -6498,29 +8196,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6551,16 +8258,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
@@ -6568,40 +8275,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6618,7 +8337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -6643,66 +8362,66 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6716,7 +8435,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="5"/>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="333">
   <si>
     <t>URL</t>
   </si>
@@ -227,9 +227,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Client side</t>
   </si>
   <si>
-    <t>toolbar</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>Skillwise</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>Client&amp;Server</t>
   </si>
   <si>
@@ -830,186 +821,6 @@
     <t>hy67GN9MxR</t>
   </si>
   <si>
-    <t>Agent1</t>
-  </si>
-  <si>
-    <t>Agent2</t>
-  </si>
-  <si>
-    <t>Agent3</t>
-  </si>
-  <si>
-    <t>Agent4</t>
-  </si>
-  <si>
-    <t>Agent5</t>
-  </si>
-  <si>
-    <t>Agent6</t>
-  </si>
-  <si>
-    <t>Agent7</t>
-  </si>
-  <si>
-    <t>Agent8</t>
-  </si>
-  <si>
-    <t>Agent9</t>
-  </si>
-  <si>
-    <t>Agent10</t>
-  </si>
-  <si>
-    <t>Agent11</t>
-  </si>
-  <si>
-    <t>Agent12</t>
-  </si>
-  <si>
-    <t>Agent13</t>
-  </si>
-  <si>
-    <t>Agent14</t>
-  </si>
-  <si>
-    <t>Agent15</t>
-  </si>
-  <si>
-    <t>Agent16</t>
-  </si>
-  <si>
-    <t>Agent17</t>
-  </si>
-  <si>
-    <t>Agent18</t>
-  </si>
-  <si>
-    <t>Agent19</t>
-  </si>
-  <si>
-    <t>Agent20</t>
-  </si>
-  <si>
-    <t>Agent21</t>
-  </si>
-  <si>
-    <t>Agent22</t>
-  </si>
-  <si>
-    <t>Agent23</t>
-  </si>
-  <si>
-    <t>Agent24</t>
-  </si>
-  <si>
-    <t>Agent25</t>
-  </si>
-  <si>
-    <t>Agent26</t>
-  </si>
-  <si>
-    <t>Agent27</t>
-  </si>
-  <si>
-    <t>Agent28</t>
-  </si>
-  <si>
-    <t>Agent29</t>
-  </si>
-  <si>
-    <t>Agent30</t>
-  </si>
-  <si>
-    <t>Agent31</t>
-  </si>
-  <si>
-    <t>Agent32</t>
-  </si>
-  <si>
-    <t>Agent33</t>
-  </si>
-  <si>
-    <t>Agent34</t>
-  </si>
-  <si>
-    <t>Agent35</t>
-  </si>
-  <si>
-    <t>Agent36</t>
-  </si>
-  <si>
-    <t>Agent37</t>
-  </si>
-  <si>
-    <t>Agent38</t>
-  </si>
-  <si>
-    <t>Agent39</t>
-  </si>
-  <si>
-    <t>Agent40</t>
-  </si>
-  <si>
-    <t>Agent41</t>
-  </si>
-  <si>
-    <t>Agent42</t>
-  </si>
-  <si>
-    <t>Agent43</t>
-  </si>
-  <si>
-    <t>Agent44</t>
-  </si>
-  <si>
-    <t>Agent45</t>
-  </si>
-  <si>
-    <t>Agent46</t>
-  </si>
-  <si>
-    <t>Agent47</t>
-  </si>
-  <si>
-    <t>Agent48</t>
-  </si>
-  <si>
-    <t>Agent49</t>
-  </si>
-  <si>
-    <t>Agent50</t>
-  </si>
-  <si>
-    <t>Agent51</t>
-  </si>
-  <si>
-    <t>Agent52</t>
-  </si>
-  <si>
-    <t>Agent53</t>
-  </si>
-  <si>
-    <t>Agent54</t>
-  </si>
-  <si>
-    <t>Agent55</t>
-  </si>
-  <si>
-    <t>Agent56</t>
-  </si>
-  <si>
-    <t>Agent57</t>
-  </si>
-  <si>
-    <t>Agent58</t>
-  </si>
-  <si>
-    <t>Agent59</t>
-  </si>
-  <si>
-    <t>Agent60</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1214,7 +1025,13 @@
     <t>Campaign sannn5 has been added successfully.</t>
   </si>
   <si>
-    <t>12345671</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AgentQa1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1775,15 +1592,15 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1799,13 +1616,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1835,17 +1652,17 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,126 +1671,126 @@
       </c>
       <c r="B1" s="17"/>
       <c r="E1" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1981,44 +1798,44 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -2027,24 +1844,24 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2069,26 +1886,26 @@
   <dimension ref="A1:AMM10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="5" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="7" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="34" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -2097,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -2213,61 +2030,61 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J2" s="9">
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L2" s="9">
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="U2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>61</v>
@@ -2282,7 +2099,7 @@
         <v>61</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>61</v>
@@ -2295,37 +2112,37 @@
       </c>
       <c r="AE2" s="11"/>
       <c r="AF2" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2401,25 +2218,25 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG3" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AL3" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>67</v>
-      </c>
       <c r="AM3" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2428,28 +2245,28 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2457,22 +2274,22 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
         <v>75</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>77</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
@@ -2481,7 +2298,7 @@
         <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W4" s="11" t="s">
         <v>62</v>
@@ -2509,25 +2326,25 @@
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2536,28 +2353,28 @@
         <v>58</v>
       </c>
       <c r="AQ4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2565,22 +2382,22 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>76</v>
-      </c>
-      <c r="P5" t="s">
-        <v>77</v>
       </c>
       <c r="Q5" t="s">
         <v>58</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
         <v>58</v>
@@ -2589,7 +2406,7 @@
         <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W5" s="11" t="s">
         <v>61</v>
@@ -2613,59 +2430,59 @@
         <v>61</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="AN5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AO5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AQ5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2673,22 +2490,22 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>76</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
       </c>
       <c r="Q6" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
         <v>58</v>
@@ -2697,7 +2514,7 @@
         <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W6" s="11" t="s">
         <v>62</v>
@@ -2725,50 +2542,56 @@
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="AQ6" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2776,22 +2599,22 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" t="s">
         <v>75</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>76</v>
-      </c>
-      <c r="P7" t="s">
-        <v>77</v>
       </c>
       <c r="Q7" t="s">
         <v>58</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s">
         <v>58</v>
@@ -2800,7 +2623,7 @@
         <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>61</v>
@@ -2828,50 +2651,50 @@
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AQ7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2879,22 +2702,22 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" t="s">
         <v>75</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
       </c>
       <c r="Q8" t="s">
         <v>58</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -2903,7 +2726,7 @@
         <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W8" s="11" t="s">
         <v>62</v>
@@ -2927,84 +2750,84 @@
         <v>62</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="AQ8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>77</v>
       </c>
       <c r="Q9" t="s">
         <v>58</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W9" s="11" t="s">
         <v>62</v>
@@ -3032,80 +2855,80 @@
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK9" s="1"/>
       <c r="AL9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AQ9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" t="s">
         <v>75</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
       </c>
       <c r="Q10" t="s">
         <v>58</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>62</v>
@@ -3133,29 +2956,29 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AQ10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3210,38 +3033,38 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -3255,44 +3078,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -3301,15 +3124,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -3318,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3352,67 +3175,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -3427,16 +3250,16 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -3448,21 +3271,21 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -3473,24 +3296,24 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3498,941 +3321,941 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H9" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H11" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H12" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H13" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H14" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H16" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H18" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P19" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="14" t="s">
+      <c r="P22" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4450,13 +4273,13 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
-    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4478,19 +4301,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4503,319 +4326,12 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
-    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
-    <col min="17" max="17" width="11.54296875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
-    <col min="19" max="21" width="11.54296875" collapsed="true"/>
-    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
-    <col min="23" max="25" width="11.54296875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="27" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
-    <col min="35" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
-    <col min="40" max="41" width="11.54296875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
+            <xm:f>DONT_TOUCH!$E$18:$E$22</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -4825,68 +4341,501 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK61"/>
+  <dimension ref="A1:AMN3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="4" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="9" max="15" width="11.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.54296875" collapsed="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="11.54296875" collapsed="1"/>
+    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
+    <col min="23" max="25" width="11.54296875" collapsed="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="27" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
+    <col min="35" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.54296875" collapsed="1"/>
+    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2:R3">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF3">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE3">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>W4:AE13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF4:AF13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.54296875" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="11.54296875" collapsed="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>48</v>
@@ -4894,17 +4843,17 @@
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="H2" s="12"/>
       <c r="K2" t="s">
@@ -4923,1904 +4872,15 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" t="s">
-        <v>63</v>
-      </c>
-      <c r="P15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="K20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="K23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" t="s">
-        <v>63</v>
-      </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="K25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" t="s">
-        <v>63</v>
-      </c>
-      <c r="O25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="K26" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="K27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" t="s">
-        <v>63</v>
-      </c>
-      <c r="N27" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" t="s">
-        <v>63</v>
-      </c>
-      <c r="N28" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="K29" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="K30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" t="s">
-        <v>63</v>
-      </c>
-      <c r="O30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" t="s">
-        <v>63</v>
-      </c>
-      <c r="M31" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="K32" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" t="s">
-        <v>63</v>
-      </c>
-      <c r="M32" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" t="s">
-        <v>63</v>
-      </c>
-      <c r="O32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="K33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" t="s">
-        <v>63</v>
-      </c>
-      <c r="M33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="K34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="K35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" t="s">
-        <v>63</v>
-      </c>
-      <c r="N35" t="s">
-        <v>63</v>
-      </c>
-      <c r="O35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="K36" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" t="s">
-        <v>63</v>
-      </c>
-      <c r="N36" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" t="s">
-        <v>63</v>
-      </c>
-      <c r="P36" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="K37" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" t="s">
-        <v>63</v>
-      </c>
-      <c r="N37" t="s">
-        <v>63</v>
-      </c>
-      <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="K38" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" t="s">
-        <v>63</v>
-      </c>
-      <c r="N38" t="s">
-        <v>63</v>
-      </c>
-      <c r="O38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="K39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N39" t="s">
-        <v>63</v>
-      </c>
-      <c r="O39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="K40" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" t="s">
-        <v>63</v>
-      </c>
-      <c r="M40" t="s">
-        <v>63</v>
-      </c>
-      <c r="N40" t="s">
-        <v>63</v>
-      </c>
-      <c r="O40" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="K41" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" t="s">
-        <v>63</v>
-      </c>
-      <c r="N41" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="K42" t="s">
-        <v>63</v>
-      </c>
-      <c r="L42" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" t="s">
-        <v>63</v>
-      </c>
-      <c r="N42" t="s">
-        <v>63</v>
-      </c>
-      <c r="O42" t="s">
-        <v>63</v>
-      </c>
-      <c r="P42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="K43" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" t="s">
-        <v>63</v>
-      </c>
-      <c r="M43" t="s">
-        <v>63</v>
-      </c>
-      <c r="N43" t="s">
-        <v>63</v>
-      </c>
-      <c r="O43" t="s">
-        <v>63</v>
-      </c>
-      <c r="P43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="K44" t="s">
-        <v>63</v>
-      </c>
-      <c r="L44" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" t="s">
-        <v>63</v>
-      </c>
-      <c r="N44" t="s">
-        <v>63</v>
-      </c>
-      <c r="O44" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="K45" t="s">
-        <v>63</v>
-      </c>
-      <c r="L45" t="s">
-        <v>63</v>
-      </c>
-      <c r="M45" t="s">
-        <v>63</v>
-      </c>
-      <c r="N45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O45" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="K46" t="s">
-        <v>63</v>
-      </c>
-      <c r="L46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" t="s">
-        <v>63</v>
-      </c>
-      <c r="N46" t="s">
-        <v>63</v>
-      </c>
-      <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="K47" t="s">
-        <v>63</v>
-      </c>
-      <c r="L47" t="s">
-        <v>63</v>
-      </c>
-      <c r="M47" t="s">
-        <v>63</v>
-      </c>
-      <c r="N47" t="s">
-        <v>63</v>
-      </c>
-      <c r="O47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="K48" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" t="s">
-        <v>63</v>
-      </c>
-      <c r="N48" t="s">
-        <v>63</v>
-      </c>
-      <c r="O48" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="K49" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" t="s">
-        <v>63</v>
-      </c>
-      <c r="M49" t="s">
-        <v>63</v>
-      </c>
-      <c r="N49" t="s">
-        <v>63</v>
-      </c>
-      <c r="O49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="K50" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M50" t="s">
-        <v>63</v>
-      </c>
-      <c r="N50" t="s">
-        <v>63</v>
-      </c>
-      <c r="O50" t="s">
-        <v>63</v>
-      </c>
-      <c r="P50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="K51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L51" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" t="s">
-        <v>63</v>
-      </c>
-      <c r="N51" t="s">
-        <v>63</v>
-      </c>
-      <c r="O51" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="K52" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" t="s">
-        <v>63</v>
-      </c>
-      <c r="M52" t="s">
-        <v>63</v>
-      </c>
-      <c r="N52" t="s">
-        <v>63</v>
-      </c>
-      <c r="O52" t="s">
-        <v>63</v>
-      </c>
-      <c r="P52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="K53" t="s">
-        <v>63</v>
-      </c>
-      <c r="L53" t="s">
-        <v>63</v>
-      </c>
-      <c r="M53" t="s">
-        <v>63</v>
-      </c>
-      <c r="N53" t="s">
-        <v>63</v>
-      </c>
-      <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="K54" t="s">
-        <v>63</v>
-      </c>
-      <c r="L54" t="s">
-        <v>63</v>
-      </c>
-      <c r="M54" t="s">
-        <v>63</v>
-      </c>
-      <c r="N54" t="s">
-        <v>63</v>
-      </c>
-      <c r="O54" t="s">
-        <v>63</v>
-      </c>
-      <c r="P54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="K55" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" t="s">
-        <v>63</v>
-      </c>
-      <c r="M55" t="s">
-        <v>63</v>
-      </c>
-      <c r="N55" t="s">
-        <v>63</v>
-      </c>
-      <c r="O55" t="s">
-        <v>63</v>
-      </c>
-      <c r="P55" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="K56" t="s">
-        <v>63</v>
-      </c>
-      <c r="L56" t="s">
-        <v>63</v>
-      </c>
-      <c r="M56" t="s">
-        <v>63</v>
-      </c>
-      <c r="N56" t="s">
-        <v>63</v>
-      </c>
-      <c r="O56" t="s">
-        <v>63</v>
-      </c>
-      <c r="P56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="K57" t="s">
-        <v>63</v>
-      </c>
-      <c r="L57" t="s">
-        <v>63</v>
-      </c>
-      <c r="M57" t="s">
-        <v>63</v>
-      </c>
-      <c r="N57" t="s">
-        <v>63</v>
-      </c>
-      <c r="O57" t="s">
-        <v>63</v>
-      </c>
-      <c r="P57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="K58" t="s">
-        <v>63</v>
-      </c>
-      <c r="L58" t="s">
-        <v>63</v>
-      </c>
-      <c r="M58" t="s">
-        <v>63</v>
-      </c>
-      <c r="N58" t="s">
-        <v>63</v>
-      </c>
-      <c r="O58" t="s">
-        <v>63</v>
-      </c>
-      <c r="P58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="K59" t="s">
-        <v>63</v>
-      </c>
-      <c r="L59" t="s">
-        <v>63</v>
-      </c>
-      <c r="M59" t="s">
-        <v>63</v>
-      </c>
-      <c r="N59" t="s">
-        <v>63</v>
-      </c>
-      <c r="O59" t="s">
-        <v>63</v>
-      </c>
-      <c r="P59" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="K60" t="s">
-        <v>63</v>
-      </c>
-      <c r="L60" t="s">
-        <v>63</v>
-      </c>
-      <c r="M60" t="s">
-        <v>63</v>
-      </c>
-      <c r="N60" t="s">
-        <v>63</v>
-      </c>
-      <c r="O60" t="s">
-        <v>63</v>
-      </c>
-      <c r="P60" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K61" t="s">
-        <v>63</v>
-      </c>
-      <c r="L61" t="s">
-        <v>63</v>
-      </c>
-      <c r="M61" t="s">
-        <v>63</v>
-      </c>
-      <c r="N61" t="s">
-        <v>63</v>
-      </c>
-      <c r="O61" t="s">
-        <v>63</v>
-      </c>
-      <c r="P61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E61" r:id="rId2" display="Ozone@123#"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6838,34 +4898,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="4" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="2" width="11.54296875" collapsed="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>48</v>
@@ -6873,1182 +4933,1182 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H55" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H58" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8069,32 +6129,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="23.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7265625" collapsed="true"/>
-    <col min="6" max="6" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="2" width="11.54296875" collapsed="1"/>
+    <col min="3" max="4" width="23.1796875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.54296875" collapsed="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>48</v>
@@ -8102,57 +6162,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8173,22 +6233,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>48</v>
@@ -8196,38 +6256,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8248,26 +6308,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
@@ -8275,52 +6335,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -8343,85 +6403,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="4" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="8" max="8" width="11.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="11" max="12" width="11.54296875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="38.1796875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="14" width="39.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.54296875" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="11.54296875" collapsed="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="O1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8435,7 +6495,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="5"/>
       <c r="P2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="286">
   <si>
     <t>URL</t>
   </si>
@@ -821,186 +821,9 @@
     <t>hy67GN9MxR</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>20102</t>
   </si>
   <si>
-    <t>20103</t>
-  </si>
-  <si>
-    <t>20104</t>
-  </si>
-  <si>
-    <t>20105</t>
-  </si>
-  <si>
-    <t>20106</t>
-  </si>
-  <si>
-    <t>20107</t>
-  </si>
-  <si>
-    <t>20108</t>
-  </si>
-  <si>
-    <t>20109</t>
-  </si>
-  <si>
-    <t>20110</t>
-  </si>
-  <si>
-    <t>20111</t>
-  </si>
-  <si>
-    <t>20112</t>
-  </si>
-  <si>
-    <t>20113</t>
-  </si>
-  <si>
-    <t>20114</t>
-  </si>
-  <si>
-    <t>20115</t>
-  </si>
-  <si>
-    <t>20116</t>
-  </si>
-  <si>
-    <t>20117</t>
-  </si>
-  <si>
-    <t>20118</t>
-  </si>
-  <si>
-    <t>20119</t>
-  </si>
-  <si>
-    <t>20120</t>
-  </si>
-  <si>
-    <t>20121</t>
-  </si>
-  <si>
-    <t>20122</t>
-  </si>
-  <si>
-    <t>20123</t>
-  </si>
-  <si>
-    <t>20124</t>
-  </si>
-  <si>
-    <t>20125</t>
-  </si>
-  <si>
-    <t>20126</t>
-  </si>
-  <si>
-    <t>20127</t>
-  </si>
-  <si>
-    <t>20128</t>
-  </si>
-  <si>
-    <t>20129</t>
-  </si>
-  <si>
-    <t>20130</t>
-  </si>
-  <si>
-    <t>20131</t>
-  </si>
-  <si>
-    <t>20132</t>
-  </si>
-  <si>
-    <t>20133</t>
-  </si>
-  <si>
-    <t>20134</t>
-  </si>
-  <si>
-    <t>20135</t>
-  </si>
-  <si>
-    <t>20136</t>
-  </si>
-  <si>
-    <t>20137</t>
-  </si>
-  <si>
-    <t>20138</t>
-  </si>
-  <si>
-    <t>20139</t>
-  </si>
-  <si>
-    <t>20140</t>
-  </si>
-  <si>
-    <t>20141</t>
-  </si>
-  <si>
-    <t>20142</t>
-  </si>
-  <si>
-    <t>20143</t>
-  </si>
-  <si>
-    <t>20144</t>
-  </si>
-  <si>
-    <t>20145</t>
-  </si>
-  <si>
-    <t>20146</t>
-  </si>
-  <si>
-    <t>20147</t>
-  </si>
-  <si>
-    <t>20148</t>
-  </si>
-  <si>
-    <t>20149</t>
-  </si>
-  <si>
-    <t>20150</t>
-  </si>
-  <si>
-    <t>20151</t>
-  </si>
-  <si>
-    <t>20152</t>
-  </si>
-  <si>
-    <t>20153</t>
-  </si>
-  <si>
-    <t>20154</t>
-  </si>
-  <si>
-    <t>20155</t>
-  </si>
-  <si>
-    <t>20156</t>
-  </si>
-  <si>
-    <t>20157</t>
-  </si>
-  <si>
-    <t>20158</t>
-  </si>
-  <si>
-    <t>20159</t>
-  </si>
-  <si>
-    <t>20160</t>
-  </si>
-  <si>
     <t>staging 144</t>
   </si>
   <si>
@@ -1032,6 +855,42 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Campaign sannn8 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign sannn9 has been added successfully.</t>
+  </si>
+  <si>
+    <t>https://ca-stg1.cloudagent.in/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t>AgentQa2</t>
+  </si>
+  <si>
+    <t>201020</t>
+  </si>
+  <si>
+    <t>verified: Passed: Phone Number 20102 has been added successfully.</t>
+  </si>
+  <si>
+    <t>san11</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Passed: Phone Number 20102 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Phone Number 201020 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Phone Number 201020 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been deleted successfully.</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1129,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,7 +1029,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,15 +1455,15 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1616,7 +1479,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>194</v>
@@ -1657,12 +1520,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,7 +1588,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -1849,10 +1712,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -1861,7 +1724,7 @@
         <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1891,16 +1754,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="7" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="34" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -2218,7 +2081,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2236,7 +2099,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2245,7 +2108,7 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2344,7 +2207,7 @@
         <v>177</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2452,7 +2315,7 @@
         <v>180</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="AN5" t="s">
         <v>181</v>
@@ -2561,16 +2424,16 @@
         <v>177</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="AQ6" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2670,7 +2533,7 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AQ7" t="s">
         <v>245</v>
@@ -2773,7 +2636,7 @@
         <v>180</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="AQ8" t="s">
         <v>245</v>
@@ -2874,7 +2737,7 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AQ9" t="s">
         <v>245</v>
@@ -2975,7 +2838,7 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AQ10" t="s">
         <v>245</v>
@@ -3038,11 +2901,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3175,9 +3038,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4278,8 +4141,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
+    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4301,7 +4164,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -4345,37 +4208,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.54296875" collapsed="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="11.54296875" collapsed="1"/>
-    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
-    <col min="23" max="25" width="11.54296875" collapsed="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="27" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
-    <col min="35" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.54296875" collapsed="1"/>
-    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
+    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
+    <col min="17" max="17" width="11.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="19" max="21" width="11.54296875" collapsed="true"/>
+    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
+    <col min="23" max="25" width="11.54296875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="27" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
+    <col min="35" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
+    <col min="40" max="41" width="11.54296875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -4602,10 +4465,10 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AQ2" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -4699,10 +4562,10 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AQ3" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4774,21 +4637,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="11.54296875" collapsed="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="2" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="4" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="9" max="15" width="11.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
@@ -4846,14 +4709,14 @@
         <v>93</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="20" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="H2" s="12"/>
       <c r="K2" t="s">
@@ -4872,6 +4735,31 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4890,38 +4778,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -4933,1187 +4823,73 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>63</v>
+      <c r="E3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6125,32 +4901,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.54296875" collapsed="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
+    <col min="6" max="6" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -6164,13 +4943,13 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
@@ -6182,13 +4961,13 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F3" t="s">
@@ -6202,10 +4981,10 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F4" t="s">
@@ -6229,25 +5008,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6258,7 +5039,7 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D2" t="s">
@@ -6269,10 +5050,10 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D3" t="s">
@@ -6283,7 +5064,7 @@
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D4" t="s">
@@ -6304,26 +5085,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6337,7 +5120,7 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -6351,10 +5134,10 @@
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D3" t="s">
@@ -6368,7 +5151,7 @@
       <c r="A4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E4" t="s">
@@ -6403,21 +5186,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.54296875" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="11.54296875" collapsed="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="4" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" width="11.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="11" max="12" width="11.54296875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="38.1796875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="14" width="39.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="291">
   <si>
     <t>URL</t>
   </si>
@@ -857,40 +857,58 @@
     <t>test</t>
   </si>
   <si>
-    <t>Campaign sannn8 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign sannn9 has been added successfully.</t>
-  </si>
-  <si>
-    <t>https://ca-stg1.cloudagent.in/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
     <t>AgentQa2</t>
   </si>
   <si>
     <t>201020</t>
   </si>
   <si>
-    <t>verified: Passed: Phone Number 20102 has been added successfully.</t>
-  </si>
-  <si>
     <t>san11</t>
   </si>
   <si>
-    <t>verified: Phone Number 201020 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Passed: Phone Number 20102 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Phone Number 201020 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Phone Number 201020 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been deleted successfully.</t>
+    <t>verified: Passed: Phone Number 20102 has been added successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>Passed: Ph no already exist</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been updated successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been deleted successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>helloooo</t>
+  </si>
+  <si>
+    <t>Campaign sannn1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign sannn1 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(sannn1) started successfully.</t>
+  </si>
+  <si>
+    <t>(sannn1) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Force_Complete works only on Outbound</t>
+  </si>
+  <si>
+    <t>Reset works only on Outbound</t>
+  </si>
+  <si>
+    <t>Delete_data works only on Outbound</t>
+  </si>
+  <si>
+    <t>Add Data works only on Outbound</t>
+  </si>
+  <si>
+    <t>Campaign sannn1 has been deleted successfully.</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1479,13 +1497,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1533,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1767,7 @@
   <dimension ref="A1:AMM10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4206,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN3"/>
+  <dimension ref="A1:AMN11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4376,83 +4394,92 @@
       <c r="A2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>70</v>
+      <c r="G2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9">
+        <v>50</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>62</v>
+        <v>166</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
+      <c r="AF2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>65</v>
@@ -4461,173 +4488,197 @@
         <v>65</v>
       </c>
       <c r="AK2" s="1"/>
-      <c r="AL2" t="s">
+      <c r="AL2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>266</v>
+        <v>172</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="AQ2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
+        <v>236</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>275</v>
+      <c r="AQ10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2:R3">
+  <dataValidations count="5">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2">
       <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2">
+      <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2">
       <formula1>SelectDialMethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE3">
-      <formula1>YES_NO</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2">
+      <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$A$1:$A$4</xm:f>
+            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DONT_TOUCH!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DONT_TOUCH!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>W4:AE13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DONT_TOUCH!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>AF4:AF13</xm:sqref>
+          <xm:sqref>A3:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4746,7 +4797,7 @@
         <v>272</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P3" t="s">
         <v>245</v>
@@ -4757,7 +4808,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P4" t="s">
         <v>245</v>
@@ -4778,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4829,13 +4880,13 @@
         <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>60</v>
@@ -4844,47 +4895,73 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
         <v>278</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
         <v>280</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="290">
   <si>
     <t>URL</t>
   </si>
@@ -827,9 +827,6 @@
     <t>staging 144</t>
   </si>
   <si>
-    <t>http://10.1.2.144:8080/AdminPortal/login.jsp</t>
-  </si>
-  <si>
     <t>http://10.1.2.144:8080/AgentPortal/cloudagent/agent_login.jsp</t>
   </si>
   <si>
@@ -866,21 +863,6 @@
     <t>san11</t>
   </si>
   <si>
-    <t>verified: Passed: Phone Number 20102 has been added successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>Passed: Ph no already exist</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been updated successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been deleted successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
     <t>helloooo</t>
   </si>
   <si>
@@ -909,6 +891,18 @@
   </si>
   <si>
     <t>Campaign sannn1 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>https://ca-stg1.cloudagent.in/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>Passed: Agent AgentQa1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Agent AgentQa2 has been updated successfully.</t>
   </si>
 </sst>
 </file>
@@ -1472,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1497,13 +1491,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1527,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1600,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -1733,7 +1727,7 @@
         <v>263</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -1742,7 +1736,7 @@
         <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2093,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2117,7 +2111,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2126,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2225,7 +2219,7 @@
         <v>177</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2333,7 +2327,7 @@
         <v>180</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AN5" t="s">
         <v>181</v>
@@ -2442,16 +2436,16 @@
         <v>177</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2551,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AQ7" t="s">
         <v>245</v>
@@ -2654,7 +2648,7 @@
         <v>180</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AQ8" t="s">
         <v>245</v>
@@ -2755,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AQ9" t="s">
         <v>245</v>
@@ -2856,7 +2850,7 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AQ10" t="s">
         <v>245</v>
@@ -4182,7 +4176,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -4226,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN11"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4501,7 +4495,7 @@
         <v>173</v>
       </c>
       <c r="AQ2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -4515,10 +4509,10 @@
         <v>160</v>
       </c>
       <c r="U3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AQ3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -4532,7 +4526,7 @@
         <v>160</v>
       </c>
       <c r="AQ4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -4546,7 +4540,7 @@
         <v>160</v>
       </c>
       <c r="AQ5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -4560,7 +4554,7 @@
         <v>160</v>
       </c>
       <c r="AQ6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -4574,7 +4568,7 @@
         <v>160</v>
       </c>
       <c r="AQ7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -4588,7 +4582,7 @@
         <v>160</v>
       </c>
       <c r="AQ8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -4602,7 +4596,7 @@
         <v>160</v>
       </c>
       <c r="AQ9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -4616,10 +4610,10 @@
         <v>160</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AQ10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -4633,7 +4627,7 @@
         <v>160</v>
       </c>
       <c r="AQ11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4691,7 +4685,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4760,14 +4754,17 @@
         <v>93</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="20" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2" s="12"/>
       <c r="K2" t="s">
@@ -4786,7 +4783,7 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4794,13 +4791,16 @@
         <v>236</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="J3" t="s">
+        <v>286</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,10 +4808,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4880,13 +4880,13 @@
         <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>60</v>
@@ -4895,7 +4895,7 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,13 +4906,13 @@
         <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>60</v>
@@ -4921,7 +4921,7 @@
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4932,13 +4932,13 @@
         <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>57</v>
@@ -4947,7 +4947,7 @@
         <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4955,13 +4955,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="286">
   <si>
     <t>URL</t>
   </si>
@@ -812,15 +812,9 @@
     <t>{"status":"success","data":["8222","9140308837801","91406","914066588222","91919191"]}</t>
   </si>
   <si>
-    <t>http://172.16.15.23/AdminPortal/login.jsp</t>
-  </si>
-  <si>
     <t>qa_testing</t>
   </si>
   <si>
-    <t>hy67GN9MxR</t>
-  </si>
-  <si>
     <t>20102</t>
   </si>
   <si>
@@ -866,43 +860,37 @@
     <t>helloooo</t>
   </si>
   <si>
-    <t>Campaign sannn1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign sannn1 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(sannn1) started successfully.</t>
-  </si>
-  <si>
-    <t>(sannn1) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Force_Complete works only on Outbound</t>
-  </si>
-  <si>
-    <t>Reset works only on Outbound</t>
-  </si>
-  <si>
-    <t>Delete_data works only on Outbound</t>
-  </si>
-  <si>
-    <t>Add Data works only on Outbound</t>
-  </si>
-  <si>
-    <t>Campaign sannn1 has been deleted successfully.</t>
-  </si>
-  <si>
     <t>selenium</t>
   </si>
   <si>
     <t>https://ca-stg1.cloudagent.in/AdminPortal/login.jsp</t>
   </si>
   <si>
-    <t>Passed: Agent AgentQa1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Agent AgentQa2 has been updated successfully.</t>
+    <t>https://ca-test1.cloudagent.in/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>qa@123#</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(sannn2) started successfully.</t>
+  </si>
+  <si>
+    <t>(sannn2) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 has been marked as complete.</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 Data deleted successfully (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>Campaign sannn2 has been deleted successfully.</t>
   </si>
 </sst>
 </file>
@@ -912,7 +900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -978,6 +966,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1048,6 +1042,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1466,14 +1462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
     <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
@@ -1491,18 +1487,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="28" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="manish@ozonetel.com"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -1654,18 +1654,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>196</v>
       </c>
       <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>261</v>
+      <c r="D18" s="27" t="s">
+        <v>278</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -1736,22 +1736,22 @@
         <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="5">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:AMM10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2111,7 +2111,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2120,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>177</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2327,7 +2327,7 @@
         <v>180</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AN5" t="s">
         <v>181</v>
@@ -2436,16 +2436,16 @@
         <v>177</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AQ6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AQ7" t="s">
         <v>245</v>
@@ -2648,7 +2648,7 @@
         <v>180</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AQ8" t="s">
         <v>245</v>
@@ -2749,7 +2749,7 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AQ9" t="s">
         <v>245</v>
@@ -2850,7 +2850,7 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AQ10" t="s">
         <v>245</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -4220,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4388,92 +4388,88 @@
       <c r="A2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="9">
-        <v>3</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="9">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AB2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>167</v>
+      <c r="AE2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>64</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>65</v>
@@ -4481,150 +4477,149 @@
       <c r="AJ2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" t="s">
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>173</v>
+        <v>263</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>159</v>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AQ3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>159</v>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>159</v>
+      <c r="B6" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>159</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>159</v>
+      <c r="B8" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>159</v>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>159</v>
+      <c r="B10" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AQ10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>159</v>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AQ11" t="s">
         <v>285</v>
@@ -4754,14 +4749,14 @@
         <v>93</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="20" t="s">
         <v>254</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4783,7 +4778,7 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4791,16 +4786,16 @@
         <v>236</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>273</v>
-      </c>
       <c r="J3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,10 +4803,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P4" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4877,16 +4872,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>60</v>
@@ -4903,16 +4898,16 @@
         <v>109</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>60</v>
@@ -4929,16 +4924,16 @@
         <v>94</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>57</v>
@@ -4955,10 +4950,10 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H5" t="s">
         <v>245</v>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="286">
   <si>
     <t>URL</t>
   </si>
@@ -884,13 +884,13 @@
     <t>Campaign sannn2 has been marked as complete.</t>
   </si>
   <si>
-    <t>Campaign sannn2 Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
-  </si>
-  <si>
-    <t>Campaign sannn2 Data deleted successfully (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
-  </si>
-  <si>
     <t>Campaign sannn2 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>hiiiiiii</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,6 +1044,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1462,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4218,10 +4220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN11"/>
+  <dimension ref="A1:AMN8"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4493,19 +4495,33 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="U3" s="29" t="s">
         <v>274</v>
       </c>
+      <c r="V3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
       <c r="AQ3" t="s">
         <v>279</v>
       </c>
@@ -4526,7 +4542,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -4534,13 +4550,17 @@
       <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G5" s="25"/>
+      <c r="P5" s="25" t="s">
+        <v>284</v>
+      </c>
       <c r="AQ5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -4549,12 +4569,12 @@
         <v>50</v>
       </c>
       <c r="AQ6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -4562,13 +4582,16 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="U7" t="s">
+        <v>285</v>
+      </c>
       <c r="AQ7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -4577,52 +4600,7 @@
         <v>50</v>
       </c>
       <c r="AQ8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4659,15 +4637,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
+            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A11</xm:sqref>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
+            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A3:A8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="280">
   <si>
     <t>URL</t>
   </si>
@@ -857,9 +857,6 @@
     <t>san11</t>
   </si>
   <si>
-    <t>helloooo</t>
-  </si>
-  <si>
     <t>selenium</t>
   </si>
   <si>
@@ -872,25 +869,10 @@
     <t>qa@123#</t>
   </si>
   <si>
-    <t>Campaign sannn2 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(sannn2) started successfully.</t>
-  </si>
-  <si>
-    <t>(sannn2) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Campaign sannn2 has been marked as complete.</t>
-  </si>
-  <si>
-    <t>Campaign sannn2 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>hiiiiiii</t>
+    <t>Campaign sannn1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Name Already exists</t>
   </si>
 </sst>
 </file>
@@ -994,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,8 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1489,7 +1469,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>194</v>
@@ -1661,13 +1641,13 @@
         <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1729,7 +1709,7 @@
         <v>261</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -1763,7 +1743,7 @@
   <dimension ref="A1:AMM10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4220,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN8"/>
+  <dimension ref="A1:AMN3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4495,133 +4475,139 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="9">
         <v>50</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="U3" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
+      <c r="M3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AQ3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="P5" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>283</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2:R3">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF3">
       <formula1>SelectDispositionType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE3">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>SelectDialMethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
       <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4634,18 +4620,12 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
-          <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A8</xm:sqref>
+          <xm:sqref>A2:A3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4770,7 +4750,7 @@
         <v>271</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P3" t="s">
         <v>245</v>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="280">
   <si>
     <t>URL</t>
   </si>
@@ -869,10 +869,10 @@
     <t>qa@123#</t>
   </si>
   <si>
-    <t>Campaign sannn1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Name Already exists</t>
+    <t>Campaign sannn2 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Campaign sannn1 has been deleted successfully.</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1450,10 +1450,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1514,12 +1514,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,16 +1748,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="5" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="7" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="34" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -2895,11 +2895,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3032,9 +3032,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4135,8 +4135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
-    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4202,37 +4202,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
-    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
-    <col min="17" max="17" width="11.54296875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
-    <col min="19" max="21" width="11.54296875" collapsed="true"/>
-    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
-    <col min="23" max="25" width="11.54296875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="27" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
-    <col min="35" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
-    <col min="40" max="41" width="11.54296875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.54296875" collapsed="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="11.54296875" collapsed="1"/>
+    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
+    <col min="23" max="25" width="11.54296875" collapsed="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="27" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
+    <col min="35" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.54296875" collapsed="1"/>
+    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -4472,12 +4472,12 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>159</v>
@@ -4637,19 +4637,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="4" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="9" max="15" width="11.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="2" width="11.54296875" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="11.54296875" collapsed="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
@@ -4790,13 +4790,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -4937,13 +4937,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
-    <col min="6" max="6" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.54296875" collapsed="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
@@ -5044,11 +5044,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5113,20 +5113,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5185,14 +5185,6 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5210,27 +5202,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="4" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="8" max="8" width="11.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="11" max="12" width="11.54296875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="38.1796875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="14" width="39.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.54296875" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="11.54296875" collapsed="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5116,7 +5116,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="281">
   <si>
     <t>URL</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>Campaign sannn1 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>https://agent2.cloudagent.in/OCCDV2/cloudagent/agent_login.jsp</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1678,7 @@
         <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
@@ -1684,7 +1687,7 @@
         <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4129,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -5115,7 +5118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="302">
   <si>
     <t>URL</t>
   </si>
@@ -800,18 +800,9 @@
     <t>Ozone@123#</t>
   </si>
   <si>
-    <t>CAServices/DID/RunningDIDs.php?userName=&amp;apiKey=</t>
-  </si>
-  <si>
     <t>KK7ae953b8897d956127d5fa84878f6a4f</t>
   </si>
   <si>
-    <t>mdinesh_qA</t>
-  </si>
-  <si>
-    <t>{"status":"success","data":["8222","9140308837801","91406","914066588222","91919191"]}</t>
-  </si>
-  <si>
     <t>qa_testing</t>
   </si>
   <si>
@@ -848,34 +839,106 @@
     <t>test</t>
   </si>
   <si>
-    <t>AgentQa2</t>
-  </si>
-  <si>
     <t>201020</t>
   </si>
   <si>
     <t>san11</t>
   </si>
   <si>
+    <t>https://ca-stg1.cloudagent.in/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>https://ca-test1.cloudagent.in/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>qa@123#</t>
+  </si>
+  <si>
+    <t>https://agent2.cloudagent.in/OCCDV2/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
     <t>selenium</t>
   </si>
   <si>
-    <t>https://ca-stg1.cloudagent.in/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t>https://ca-test1.cloudagent.in/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t>qa@123#</t>
-  </si>
-  <si>
-    <t>Campaign sannn2 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Campaign sannn1 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>https://agent2.cloudagent.in/OCCDV2/cloudagent/agent_login.jsp</t>
+    <t>914066588222</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>CAServices/AgentManualDial.php?username=&amp;api_key=&amp;customerNumber=&amp;uui=&amp;agentID=&amp;did=&amp;format=&amp;UCID=&amp;campaignName=</t>
+  </si>
+  <si>
+    <t>Inbound_1</t>
+  </si>
+  <si>
+    <t>{"status":"problem occurred please try again DB error"}</t>
+  </si>
+  <si>
+    <t>Disposition selenium123 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Ca_ozonetel_preview</t>
+  </si>
+  <si>
+    <t>Ca_ozonetel_inbound</t>
+  </si>
+  <si>
+    <t>Campaign Name Already exists</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>campaign is in completed already</t>
+  </si>
+  <si>
+    <t>path is blank</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>AgentQa1New</t>
   </si>
 </sst>
 </file>
@@ -885,7 +948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -936,24 +999,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF505050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1015,20 +1072,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1113,10 +1170,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HitScreenPopURlAt" displayName="HitScreenPopURlAt_1" ref="E1:F9" totalsRowShown="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="HitScreenPopURlAt" displayName="HitScreenPopURlAt_1" ref="E1:G9" totalsRowShown="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="Client side OnBusy"/>
     <tableColumn id="2" name="Add_Campaign"/>
+    <tableColumn id="3" name="Add"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1447,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1529,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1485,9 +1543,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
     <hyperlink ref="C2" r:id="rId2" display="manish@ozonetel.com"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1512,7 +1571,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1584,7 @@
     <col min="7" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
@@ -1536,8 +1595,11 @@
       <c r="F1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>148</v>
       </c>
@@ -1556,8 +1618,11 @@
       <c r="F2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>151</v>
       </c>
@@ -1576,8 +1641,11 @@
       <c r="F3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>155</v>
       </c>
@@ -1585,7 +1653,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>157</v>
@@ -1594,7 +1662,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
         <v>158</v>
       </c>
@@ -1602,7 +1670,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
         <v>77</v>
       </c>
@@ -1610,17 +1678,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>247</v>
       </c>
@@ -1644,13 +1712,13 @@
         <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>277</v>
+        <v>256</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1678,7 +1746,7 @@
         <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
@@ -1687,7 +1755,7 @@
         <v>200</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,10 +1777,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -1721,7 +1789,7 @@
         <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2146,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2096,7 +2164,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2105,7 +2173,7 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2204,7 +2272,7 @@
         <v>177</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2312,7 +2380,7 @@
         <v>180</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AN5" t="s">
         <v>181</v>
@@ -2421,16 +2489,16 @@
         <v>177</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>264</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2530,7 +2598,7 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ7" t="s">
         <v>245</v>
@@ -2633,7 +2701,7 @@
         <v>180</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AQ8" t="s">
         <v>245</v>
@@ -2734,7 +2802,7 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ9" t="s">
         <v>245</v>
@@ -2835,7 +2903,7 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AQ10" t="s">
         <v>245</v>
@@ -4132,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4161,7 +4229,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -4203,17 +4271,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN3"/>
+  <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
@@ -4371,13 +4439,13 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
@@ -4448,7 +4516,7 @@
         <v>61</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG2" t="s">
         <v>64</v>
@@ -4466,7 +4534,7 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AN2" t="s">
         <v>58</v>
@@ -4475,142 +4543,425 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="C12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J12" s="9">
         <v>3</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L12" s="9">
         <v>50</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R12" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T12" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V12" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA12" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="9" t="s">
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="5" t="s">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>279</v>
+      <c r="AQ12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2:R3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2 R12">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2:AF3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2 AF12">
       <formula1>SelectDispositionType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2 W12:AE12">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F16">
       <formula1>SelectDialMethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E16">
       <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4626,9 +4977,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
-            <xm:f>DONT_TOUCH!$F$1:$F$7</xm:f>
+            <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3</xm:sqref>
+          <xm:sqref>A2:A52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4640,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4709,20 +5060,21 @@
       <c r="A2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>269</v>
+      <c r="B2" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="E2" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>269</v>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
       <c r="K2" t="s">
         <v>63</v>
       </c>
@@ -4742,44 +5094,47 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>271</v>
+      <c r="B3" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>274</v>
-      </c>
-      <c r="P3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" t="s">
-        <v>245</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$G$1:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4832,22 +5187,22 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>260</v>
+      <c r="B2" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>63</v>
       </c>
       <c r="H2" t="s">
@@ -4858,22 +5213,22 @@
       <c r="A3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>260</v>
+      <c r="B3" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="H3" t="s">
@@ -4884,22 +5239,22 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>260</v>
+      <c r="B4" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>62</v>
       </c>
       <c r="H4" t="s">
@@ -4911,10 +5266,10 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="H5" t="s">
         <v>245</v>
@@ -5039,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5076,32 +5431,43 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
-        <v>245</v>
+      <c r="D5" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5203,10 +5569,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5217,18 +5583,18 @@
     <col min="4" max="5" width="11.54296875" collapsed="1"/>
     <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="11.54296875" collapsed="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.54296875" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -5260,58 +5626,74 @@
         <v>128</v>
       </c>
       <c r="K1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="5"/>
-      <c r="P2" t="s">
-        <v>258</v>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -15,11 +15,12 @@
     <sheet name="TransferNumbers" sheetId="6" r:id="rId6"/>
     <sheet name="Dispositions" sheetId="7" r:id="rId7"/>
     <sheet name="Pause Reasons" sheetId="8" r:id="rId8"/>
-    <sheet name="API AUTOMATION" sheetId="9" r:id="rId9"/>
-    <sheet name="DONT_TOUCH" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="13" r:id="rId13"/>
+    <sheet name="Dialout" sheetId="14" r:id="rId9"/>
+    <sheet name="API AUTOMATION" sheetId="9" r:id="rId10"/>
+    <sheet name="DONT_TOUCH" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="310">
   <si>
     <t>URL</t>
   </si>
@@ -380,12 +381,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>reason11</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
     <t>reason1123</t>
   </si>
   <si>
@@ -881,74 +876,101 @@
     <t>Inbound_1</t>
   </si>
   <si>
+    <t>Ca_ozonetel_preview</t>
+  </si>
+  <si>
+    <t>Ca_ozonetel_inbound</t>
+  </si>
+  <si>
+    <t>Campaign Name Already exists</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>campaign is in completed already</t>
+  </si>
+  <si>
+    <t>path is blank</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>AgentQa1New</t>
+  </si>
+  <si>
     <t>{"status":"problem occurred please try again DB error"}</t>
   </si>
   <si>
-    <t>Disposition selenium123 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Disposition selenium1234 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Disposition selenium1234 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Ca_ozonetel_preview</t>
-  </si>
-  <si>
-    <t>Ca_ozonetel_inbound</t>
-  </si>
-  <si>
-    <t>Campaign Name Already exists</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_preview) started successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_preview) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>campaign is in completed already</t>
-  </si>
-  <si>
-    <t>path is blank</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) started successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>AgentQa1New</t>
+    <t>Dial Out Name</t>
+  </si>
+  <si>
+    <t>Dial Out Number</t>
+  </si>
+  <si>
+    <t>new Dial Out Name</t>
+  </si>
+  <si>
+    <t>NEW Dial Out Number</t>
+  </si>
+  <si>
+    <t>santuuuu1</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>santuuuu2</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>santuuuu20</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>reason11234</t>
+  </si>
+  <si>
+    <t>reason112345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1009,10 +1031,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF505050"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1058,7 +1088,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1086,6 +1115,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1506,7 +1536,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1529,21 +1559,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>194</v>
+      <c r="A2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="manish@ozonetel.com"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="manish@ozonetel.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1568,6 +1598,140 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.54296875" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1585,89 +1749,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="16"/>
       <c r="E1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>149</v>
+      <c r="A2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,50 +1839,50 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>192</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1726,44 +1890,44 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -1772,24 +1936,24 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM10"/>
   <sheetViews>
@@ -1833,7 +1997,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -1842,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -1958,61 +2122,61 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="J2" s="9">
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L2" s="9">
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="U2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>61</v>
@@ -2027,7 +2191,7 @@
         <v>61</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>61</v>
@@ -2040,13 +2204,13 @@
       </c>
       <c r="AE2" s="11"/>
       <c r="AF2" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>65</v>
@@ -2059,18 +2223,18 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2146,7 +2310,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2164,7 +2328,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2173,28 +2337,28 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2217,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
@@ -2254,7 +2418,7 @@
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG4" t="s">
         <v>78</v>
@@ -2269,10 +2433,10 @@
         <v>65</v>
       </c>
       <c r="AL4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2281,28 +2445,28 @@
         <v>58</v>
       </c>
       <c r="AQ4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2358,11 +2522,11 @@
         <v>61</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
         <v>78</v>
@@ -2377,40 +2541,40 @@
         <v>65</v>
       </c>
       <c r="AL5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO5" t="s">
         <v>180</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>182</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2470,7 +2634,7 @@
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG6" t="s">
         <v>78</v>
@@ -2486,40 +2650,40 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AQ6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2579,7 +2743,7 @@
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG7" t="s">
         <v>78</v>
@@ -2598,31 +2762,31 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2678,11 +2842,11 @@
         <v>62</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG8" t="s">
         <v>78</v>
@@ -2698,42 +2862,42 @@
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AQ8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="18" t="s">
-        <v>191</v>
+      <c r="I9" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1" t="s">
@@ -2783,7 +2947,7 @@
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG9" t="s">
         <v>78</v>
@@ -2802,15 +2966,15 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -2884,7 +3048,7 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s">
         <v>78</v>
@@ -2903,10 +3067,10 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -2975,24 +3139,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -3006,44 +3170,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -3052,15 +3216,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -3069,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3093,12 +3257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3110,1080 +3274,1080 @@
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="O1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="P2" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P6" s="14"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P7" s="14"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P8" s="14"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P9" s="14"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P10" s="14"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P11" s="14"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P12" s="14"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P15" s="14"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="L16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="L17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="5" t="s">
+      <c r="M17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" s="14"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="L18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="M18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="14"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="14"/>
+        <v>215</v>
+      </c>
+      <c r="P19" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="L22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="5" t="s">
+      <c r="M22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="14" t="s">
+      <c r="P22" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="P24" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
       <c r="O26" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
       <c r="O27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="L32" s="5"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4201,7 +4365,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4229,19 +4393,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>254</v>
+        <v>217</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4273,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4307,8 +4471,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>246</v>
+      <c r="A1" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -4317,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -4431,7 +4595,7 @@
         <v>47</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>48</v>
@@ -4439,13 +4603,13 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
@@ -4516,7 +4680,7 @@
         <v>61</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG2" t="s">
         <v>64</v>
@@ -4534,7 +4698,7 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AN2" t="s">
         <v>58</v>
@@ -4543,18 +4707,18 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>51</v>
@@ -4566,18 +4730,18 @@
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>51</v>
@@ -4589,18 +4753,18 @@
         <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>51</v>
@@ -4612,18 +4776,18 @@
         <v>53</v>
       </c>
       <c r="AQ5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>51</v>
@@ -4635,18 +4799,18 @@
         <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>51</v>
@@ -4658,18 +4822,18 @@
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>51</v>
@@ -4681,18 +4845,18 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>51</v>
@@ -4703,19 +4867,22 @@
       <c r="G9" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="AM9" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="AQ9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>51</v>
@@ -4727,18 +4894,18 @@
         <v>53</v>
       </c>
       <c r="AQ10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>51</v>
@@ -4750,65 +4917,65 @@
         <v>53</v>
       </c>
       <c r="AQ11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="J12" s="9">
         <v>3</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L12" s="9">
         <v>50</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="R12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="T12" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="U12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>61</v>
@@ -4823,7 +4990,7 @@
         <v>61</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>61</v>
@@ -4836,13 +5003,13 @@
       </c>
       <c r="AE12" s="11"/>
       <c r="AF12" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>65</v>
@@ -4855,114 +5022,102 @@
         <v>66</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AQ12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AQ16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2 R12">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AF2 AF12">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2 W12:AE12">
       <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F2:F16">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E16">
-      <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4974,12 +5129,30 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="invalid entry!!!" promptTitle="Actions" prompt="plz select Action on campaign">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF2:AF50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4992,7 +5165,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5060,20 +5233,22 @@
       <c r="A2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>266</v>
+      <c r="B2" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
-        <v>266</v>
+      <c r="E2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
         <v>63</v>
@@ -5091,34 +5266,43 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>301</v>
+        <v>234</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="P3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>301</v>
+      <c r="B4" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5142,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5187,78 +5371,78 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>257</v>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>257</v>
+      <c r="B3" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>257</v>
+      <c r="B4" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5266,13 +5450,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5474,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5331,25 +5515,25 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5362,7 +5546,7 @@
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,7 +5563,7 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5431,7 +5615,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5442,7 +5626,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5456,7 +5640,7 @@
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,7 +5651,7 @@
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5482,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5522,11 +5706,14 @@
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5537,24 +5724,32 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
+      <c r="B5" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5569,134 +5764,129 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.54296875" collapsed="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="39.7265625" style="14" customWidth="1" collapsed="1"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="P1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>207</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="K2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>282</v>
+        <v>301</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="328">
   <si>
     <t>URL</t>
   </si>
@@ -882,7 +882,52 @@
     <t>Ca_ozonetel_inbound</t>
   </si>
   <si>
-    <t>Campaign Name Already exists</t>
+    <t>AgentQa1New</t>
+  </si>
+  <si>
+    <t>{"status":"problem occurred please try again DB error"}</t>
+  </si>
+  <si>
+    <t>Dial Out Name</t>
+  </si>
+  <si>
+    <t>Dial Out Number</t>
+  </si>
+  <si>
+    <t>new Dial Out Name</t>
+  </si>
+  <si>
+    <t>NEW Dial Out Number</t>
+  </si>
+  <si>
+    <t>santuuuu1</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>santuuuu2</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>santuuuu20</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>reason11234</t>
+  </si>
+  <si>
+    <t>reason112345</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been added successfully.</t>
   </si>
   <si>
     <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
@@ -897,13 +942,10 @@
     <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>campaign is in completed already</t>
-  </si>
-  <si>
-    <t>path is blank</t>
+    <t>Campaign Ca_ozonetel_preview Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>campaign is not completed to delete the data</t>
   </si>
   <si>
     <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
@@ -912,6 +954,9 @@
     <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
   </si>
   <si>
+    <t>Campaign Ca_ozonetel_inbound has been updated successfully.</t>
+  </si>
+  <si>
     <t>(Ca_ozonetel_inbound) started successfully.</t>
   </si>
   <si>
@@ -921,56 +966,70 @@
     <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
   </si>
   <si>
-    <t>AgentQa1New</t>
-  </si>
-  <si>
-    <t>{"status":"problem occurred please try again DB error"}</t>
-  </si>
-  <si>
-    <t>Dial Out Name</t>
-  </si>
-  <si>
-    <t>Dial Out Number</t>
-  </si>
-  <si>
-    <t>new Dial Out Name</t>
-  </si>
-  <si>
-    <t>NEW Dial Out Number</t>
-  </si>
-  <si>
-    <t>santuuuu1</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>santuuuu2</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>santuuuu20</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>reason11234</t>
-  </si>
-  <si>
-    <t>reason112345</t>
+    <t>qa@23#</t>
+  </si>
+  <si>
+    <t>Passed: Agent AgentQa1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>verified: Passed: Phone Number 20102 has been added successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been updated successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been deleted successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>no records found with the agentid: AgentQa1New</t>
+  </si>
+  <si>
+    <t>success Agent Id Already exists</t>
+  </si>
+  <si>
+    <t>Agent AgentQa1New has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Passed: Phone Number 20102 has been added successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>no data found with deatils:  Name: san11   PhNo: 201020</t>
+  </si>
+  <si>
+    <t>Disposition selenium123 has been added successfully.</t>
+  </si>
+  <si>
+    <t>no data found with deatils selenium1234</t>
+  </si>
+  <si>
+    <t>DialOutNumber 123456 with santuuuu1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Agent Id is required.</t>
+  </si>
+  <si>
+    <t>header is not displayed as 'Edit Agent' or id not matching</t>
+  </si>
+  <si>
+    <t>Passed: Ph no already exist</t>
+  </si>
+  <si>
+    <t>header 'Edit' or name or number not matching</t>
+  </si>
+  <si>
+    <t>either Edit header or reason not matching</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1535,16 +1594,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1560,20 +1619,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="manish@ozonetel.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1606,21 +1665,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.54296875" collapsed="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="4" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="12" max="13" width="11.54296875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="38.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="13" width="39.7265625" collapsed="true"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
@@ -1717,7 +1776,7 @@
         <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -1735,17 +1794,17 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,8 +1985,8 @@
       <c r="A21" t="s">
         <v>249</v>
       </c>
-      <c r="B21" t="s">
-        <v>203</v>
+      <c r="B21" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -1957,18 +2016,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="5">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1983,16 +2045,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="7" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="34" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -3130,11 +3192,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3267,9 +3329,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4370,8 +4432,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
+    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4437,37 +4499,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.54296875" collapsed="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="11.54296875" collapsed="1"/>
-    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
-    <col min="23" max="25" width="11.54296875" collapsed="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="27" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
-    <col min="35" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.54296875" collapsed="1"/>
-    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="18.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
+    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
+    <col min="17" max="17" width="11.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="19" max="21" width="11.54296875" collapsed="true"/>
+    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
+    <col min="23" max="25" width="11.54296875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="27" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
+    <col min="35" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
+    <col min="40" max="41" width="11.54296875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -4707,7 +4769,7 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -4730,7 +4792,7 @@
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -4753,7 +4815,7 @@
         <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -4776,7 +4838,7 @@
         <v>53</v>
       </c>
       <c r="AQ5" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -4799,7 +4861,7 @@
         <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -4822,7 +4884,7 @@
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -4845,7 +4907,7 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -4871,7 +4933,7 @@
         <v>258</v>
       </c>
       <c r="AQ9" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -4894,7 +4956,7 @@
         <v>53</v>
       </c>
       <c r="AQ10" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -4917,7 +4979,7 @@
         <v>53</v>
       </c>
       <c r="AQ11" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -5031,7 +5093,7 @@
         <v>171</v>
       </c>
       <c r="AQ12" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -5050,7 +5112,7 @@
         <v>159</v>
       </c>
       <c r="AQ13" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -5069,7 +5131,7 @@
         <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -5088,7 +5150,7 @@
         <v>159</v>
       </c>
       <c r="AQ15" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -5107,7 +5169,7 @@
         <v>159</v>
       </c>
       <c r="AQ16" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5165,18 +5227,18 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="11.54296875" collapsed="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="2" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="4" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="9" max="15" width="11.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
@@ -5277,10 +5339,7 @@
         <v>264</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P3" t="s">
         <v>243</v>
@@ -5291,7 +5350,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P4" t="s">
         <v>243</v>
@@ -5324,21 +5383,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -5395,7 +5454,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>255</v>
@@ -5410,10 +5469,10 @@
         <v>266</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
         <v>243</v>
@@ -5421,41 +5480,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5479,13 +5512,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.54296875" collapsed="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
+    <col min="6" max="6" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
@@ -5578,19 +5611,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5620,37 +5653,26 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="D3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5669,17 +5691,17 @@
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5729,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -5724,24 +5746,30 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
       </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,7 +5777,10 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5767,13 +5798,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5781,16 +5812,16 @@
         <v>79</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>100</v>
@@ -5804,10 +5835,10 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -5821,19 +5852,19 @@
         <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
         <v>243</v>
@@ -5841,19 +5872,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>177</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -5867,16 +5898,16 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="AgentLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Campaign" sheetId="3" r:id="rId3"/>
-    <sheet name="Agents" sheetId="4" r:id="rId4"/>
-    <sheet name="PhoneNumber" sheetId="5" r:id="rId5"/>
-    <sheet name="TransferNumbers" sheetId="6" r:id="rId6"/>
-    <sheet name="Dispositions" sheetId="7" r:id="rId7"/>
-    <sheet name="Pause Reasons" sheetId="8" r:id="rId8"/>
-    <sheet name="Dialout" sheetId="14" r:id="rId9"/>
-    <sheet name="API AUTOMATION" sheetId="9" r:id="rId10"/>
-    <sheet name="DONT_TOUCH" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet5" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="12" r:id="rId13"/>
-    <sheet name="Sheet12" sheetId="13" r:id="rId14"/>
+    <sheet name="DashBoardLogin" sheetId="15" r:id="rId2"/>
+    <sheet name="AgentLogin" sheetId="2" r:id="rId3"/>
+    <sheet name="Campaign" sheetId="3" r:id="rId4"/>
+    <sheet name="Agents" sheetId="4" r:id="rId5"/>
+    <sheet name="PhoneNumber" sheetId="5" r:id="rId6"/>
+    <sheet name="TransferNumbers" sheetId="6" r:id="rId7"/>
+    <sheet name="Dispositions" sheetId="7" r:id="rId8"/>
+    <sheet name="Pause Reasons" sheetId="8" r:id="rId9"/>
+    <sheet name="Dialout" sheetId="14" r:id="rId10"/>
+    <sheet name="API AUTOMATION" sheetId="9" r:id="rId11"/>
+    <sheet name="DONT_TOUCH" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="320">
   <si>
     <t>URL</t>
   </si>
@@ -969,67 +970,38 @@
     <t>qa@23#</t>
   </si>
   <si>
-    <t>Passed: Agent AgentQa1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>verified: Passed: Phone Number 20102 has been added successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been updated successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been deleted successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>no records found with the agentid: AgentQa1New</t>
-  </si>
-  <si>
-    <t>success Agent Id Already exists</t>
-  </si>
-  <si>
-    <t>Agent AgentQa1New has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Passed: Phone Number 20102 has been added successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>no data found with deatils:  Name: san11   PhNo: 201020</t>
-  </si>
-  <si>
-    <t>Disposition selenium123 has been added successfully.</t>
-  </si>
-  <si>
-    <t>no data found with deatils selenium1234</t>
-  </si>
-  <si>
-    <t>DialOutNumber 123456 with santuuuu1 has been added successfully.</t>
-  </si>
-  <si>
-    <t>Agent Id is required.</t>
-  </si>
-  <si>
-    <t>header is not displayed as 'Edit Agent' or id not matching</t>
-  </si>
-  <si>
-    <t>Passed: Ph no already exist</t>
-  </si>
-  <si>
-    <t>header 'Edit' or name or number not matching</t>
-  </si>
-  <si>
-    <t>either Edit header or reason not matching</t>
+    <t>https://monitor2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>DASHBOARD</t>
+  </si>
+  <si>
+    <t>AGENT_LOGIN</t>
+  </si>
+  <si>
+    <t>23 server</t>
+  </si>
+  <si>
+    <t>https://ca-test1.cloudagent.in/DashboardPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>http://10.1.2.76:8080/DashboardPortal/login.jsp;</t>
+  </si>
+  <si>
+    <t>https://entmonitor1.getkookoo.com/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t>https://ca-stg1.cloudagent.in/DashboardPortal/login.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1595,15 +1567,15 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1657,6 +1629,135 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -1665,21 +1766,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="4" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="12" max="13" width="11.54296875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.26953125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="38.1796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="13" width="39.7265625" collapsed="true"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.54296875" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
@@ -1789,22 +1890,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="63.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,7 +2017,18 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -1929,10 +2041,13 @@
       <c r="D17" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
         <v>269</v>
@@ -1946,8 +2061,11 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -1963,8 +2081,11 @@
       <c r="E19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -1980,8 +2101,11 @@
       <c r="E20" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -1997,8 +2121,11 @@
       <c r="E21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>256</v>
       </c>
@@ -2013,6 +2140,9 @@
       </c>
       <c r="E22" t="s">
         <v>257</v>
+      </c>
+      <c r="F22" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM10"/>
   <sheetViews>
@@ -2045,16 +2175,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="5" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="7" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="34" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -3182,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -3192,11 +3322,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3319,7 +3449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
@@ -3329,9 +3459,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4424,6 +4554,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DONT_TOUCH!$F$17:$F$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4432,8 +4621,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
-    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4495,41 +4684,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="18.08984375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
-    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
-    <col min="17" max="17" width="11.54296875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
-    <col min="19" max="21" width="11.54296875" collapsed="true"/>
-    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
-    <col min="23" max="25" width="11.54296875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="27" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
-    <col min="35" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
-    <col min="40" max="41" width="11.54296875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.54296875" collapsed="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="11.54296875" collapsed="1"/>
+    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
+    <col min="23" max="25" width="11.54296875" collapsed="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="27" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
+    <col min="35" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.54296875" collapsed="1"/>
+    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -5222,7 +5411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
@@ -5232,13 +5421,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="4" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="9" max="15" width="11.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="2" width="11.54296875" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="11.54296875" collapsed="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
@@ -5381,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
@@ -5391,13 +5580,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -5495,113 +5684,6 @@
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
-    <col min="6" max="6" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5614,65 +5696,95 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.54296875" collapsed="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>107</v>
+      <c r="B1" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5688,98 +5800,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5795,129 +5877,107 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="336">
   <si>
     <t>URL</t>
   </si>
@@ -847,9 +847,6 @@
     <t>https://ca-test1.cloudagent.in/AdminPortal/login.jsp</t>
   </si>
   <si>
-    <t>qa@123#</t>
-  </si>
-  <si>
     <t>https://agent2.cloudagent.in/OCCDV2/cloudagent/agent_login.jsp</t>
   </si>
   <si>
@@ -928,80 +925,134 @@
     <t>reason112345</t>
   </si>
   <si>
+    <t>https://monitor2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>DASHBOARD</t>
+  </si>
+  <si>
+    <t>AGENT_LOGIN</t>
+  </si>
+  <si>
+    <t>23 server</t>
+  </si>
+  <si>
+    <t>https://ca-test1.cloudagent.in/DashboardPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>http://10.1.2.76:8080/DashboardPortal/login.jsp;</t>
+  </si>
+  <si>
+    <t>https://entmonitor1.getkookoo.com/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t>https://ca-stg1.cloudagent.in/DashboardPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>95536</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) started successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
+  </si>
+  <si>
     <t>Campaign Ca_ozonetel_preview has been added successfully.</t>
   </si>
   <si>
-    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_preview) started successfully.</t>
+    <t>Campaign Ca_ozonetel_preview Data deleted successfully (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>DialOutNumber 123456 with santuuuu1 has been added successfully.</t>
+  </si>
+  <si>
+    <t>DialOutNumber 1234567 with santuuuu2 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>DialOutNumber 1234567 with santuuuu2 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Disposition selenium123 has been added successfully.</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>PauseReason reason1123 has been added successfully.</t>
+  </si>
+  <si>
+    <t>PauseReason reason11234 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>PauseReason reason11234 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>qa@115#</t>
   </si>
   <si>
     <t>(Ca_ozonetel_preview) stopped successfully.</t>
   </si>
   <si>
-    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
-  </si>
-  <si>
-    <t>campaign is not completed to delete the data</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) started successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>qa@23#</t>
-  </si>
-  <si>
-    <t>https://monitor2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>DASHBOARD</t>
-  </si>
-  <si>
-    <t>AGENT_LOGIN</t>
-  </si>
-  <si>
-    <t>23 server</t>
-  </si>
-  <si>
-    <t>https://ca-test1.cloudagent.in/DashboardPortal/login.jsp</t>
-  </si>
-  <si>
-    <t>http://10.1.2.76:8080/DashboardPortal/login.jsp;</t>
-  </si>
-  <si>
-    <t>https://entmonitor1.getkookoo.com/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t>https://ca-stg1.cloudagent.in/DashboardPortal/login.jsp</t>
+    <t>verified: Passed: Phone Number 20102 has been added successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been updated successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been deleted successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>header 'Edit' or name or number not matching</t>
+  </si>
+  <si>
+    <t>no data found with deatils:  Name: santuuu   PhNo: 95536</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1057,12 +1108,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF263238"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1097,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1142,11 +1187,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1567,7 +1611,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1591,20 +1635,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>310</v>
+        <v>191</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="manish@ozonetel.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1642,25 +1686,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1669,16 +1713,16 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,45 +1730,45 @@
         <v>234</v>
       </c>
       <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
         <v>291</v>
       </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,22 +1776,22 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1859,7 @@
         <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s">
         <v>127</v>
@@ -1841,7 +1885,7 @@
         <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
         <v>253</v>
@@ -1853,31 +1897,31 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>275</v>
+      <c r="H2" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2" t="s">
         <v>265</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1939,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2019,13 +2063,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25" x14ac:dyDescent="0.25">
@@ -2042,12 +2086,12 @@
         <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>269</v>
@@ -2055,14 +2099,14 @@
       <c r="C18" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>270</v>
+      <c r="D18" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,7 +2134,7 @@
         <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
@@ -2099,10 +2143,10 @@
         <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,7 +2166,7 @@
         <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,25 +2186,26 @@
         <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="D18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <tableParts count="5">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2169,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4557,17 +4602,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="51.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4580,22 +4625,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>310</v>
+      <c r="C2" s="24" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="B2" r:id="rId2" display="manish@ozonetel.com"/>
     <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4644,7 +4690,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -4686,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN16"/>
+  <dimension ref="A1:AMN17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4860,7 +4906,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
@@ -4958,7 +5004,7 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -4969,7 +5015,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>51</v>
@@ -4981,7 +5027,7 @@
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -4992,7 +5038,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>51</v>
@@ -5004,7 +5050,7 @@
         <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -5015,7 +5061,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>51</v>
@@ -5027,7 +5073,7 @@
         <v>53</v>
       </c>
       <c r="AQ5" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -5038,7 +5084,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>51</v>
@@ -5050,7 +5096,7 @@
         <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -5061,7 +5107,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>51</v>
@@ -5073,7 +5119,7 @@
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -5084,7 +5130,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>51</v>
@@ -5096,7 +5142,7 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -5107,7 +5153,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>51</v>
@@ -5122,18 +5168,18 @@
         <v>258</v>
       </c>
       <c r="AQ9" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>51</v>
@@ -5145,18 +5191,18 @@
         <v>53</v>
       </c>
       <c r="AQ10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>51</v>
@@ -5168,151 +5214,151 @@
         <v>53</v>
       </c>
       <c r="AQ11" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+        <v>279</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="9">
-        <v>3</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="9">
-        <v>50</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG12" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="AQ12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
         <v>159</v>
       </c>
+      <c r="H13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="9">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="9">
+        <v>50</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
       <c r="AQ13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5320,18 +5366,18 @@
         <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -5339,18 +5385,18 @@
         <v>159</v>
       </c>
       <c r="AQ15" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -5358,16 +5404,35 @@
         <v>159</v>
       </c>
       <c r="AQ16" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2 R12">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="R2 R13">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2 W12:AE12">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="W2:AE2 W13:AE13">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5385,25 +5450,25 @@
           <x14:formula1>
             <xm:f>DONT_TOUCH!$F$1:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A52</xm:sqref>
+          <xm:sqref>A2:A31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E50</xm:sqref>
+          <xm:sqref>E2:E29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F50</xm:sqref>
+          <xm:sqref>F2:F29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DONT_TOUCH!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AF2:AF50</xm:sqref>
+          <xm:sqref>AF2:AF29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5416,21 +5481,24 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.54296875" collapsed="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
     <col min="9" max="15" width="11.54296875" collapsed="1"/>
     <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
     <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -5499,7 +5567,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
         <v>63</v>
@@ -5520,7 +5588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -5528,18 +5596,18 @@
         <v>264</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P4" t="s">
         <v>243</v>
@@ -5575,7 +5643,7 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5638,7 +5706,7 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5664,7 +5732,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,7 +5746,7 @@
         <v>266</v>
       </c>
       <c r="H4" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5764,11 +5832,14 @@
       <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,13 +5850,13 @@
         <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +5908,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,7 +5922,7 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,7 +5933,7 @@
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5918,13 +5989,13 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5935,30 +6006,30 @@
         <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5966,10 +6037,10 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="343">
   <si>
     <t>URL</t>
   </si>
@@ -1046,13 +1046,38 @@
   </si>
   <si>
     <t>no data found with deatils:  Name: santuuu   PhNo: 95536</t>
+  </si>
+  <si>
+    <t>qa@86#</t>
+  </si>
+  <si>
+    <t>Passed: Phone Number 20102 has been added successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>Phone Number 201020 has been updated successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>Phone Number 201020 has been deleted successfully.
+Note: this may take 2 mins to impact agent login.</t>
+  </si>
+  <si>
+    <t>TransferNumber 95535 has been added successfully.</t>
+  </si>
+  <si>
+    <t>TransferNumber 95536 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>TransferNumber 95536 has been deleted successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1610,16 +1635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1635,20 +1660,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3" display="manish@ozonetel.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1676,13 +1701,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,21 +1835,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.54296875" collapsed="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="4" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="12" max="13" width="11.54296875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="38.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="13" width="39.7265625" collapsed="true"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
@@ -1944,12 +1969,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="63.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="63.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2220,16 +2245,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="7" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="34" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -3367,11 +3392,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3504,9 +3529,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4601,15 +4626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -4631,7 +4656,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4667,8 +4692,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
+    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4735,36 +4760,36 @@
   <dimension ref="A1:AMN17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.54296875" collapsed="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="11.54296875" collapsed="1"/>
-    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
-    <col min="23" max="25" width="11.54296875" collapsed="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="27" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
-    <col min="35" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.54296875" collapsed="1"/>
-    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="18.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
+    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
+    <col min="17" max="17" width="11.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="19" max="21" width="11.54296875" collapsed="true"/>
+    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
+    <col min="23" max="25" width="11.54296875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="27" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
+    <col min="35" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
+    <col min="40" max="41" width="11.54296875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -5004,7 +5029,7 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -5027,7 +5052,7 @@
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -5050,7 +5075,7 @@
         <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -5073,7 +5098,7 @@
         <v>53</v>
       </c>
       <c r="AQ5" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -5096,7 +5121,7 @@
         <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -5119,7 +5144,7 @@
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -5142,7 +5167,7 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -5168,7 +5193,7 @@
         <v>258</v>
       </c>
       <c r="AQ9" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -5191,7 +5216,7 @@
         <v>53</v>
       </c>
       <c r="AQ10" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -5214,7 +5239,7 @@
         <v>53</v>
       </c>
       <c r="AQ11" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -5237,7 +5262,7 @@
         <v>53</v>
       </c>
       <c r="AQ12" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -5347,7 +5372,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AQ13" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -5366,7 +5391,7 @@
         <v>159</v>
       </c>
       <c r="AQ14" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -5385,7 +5410,7 @@
         <v>159</v>
       </c>
       <c r="AQ15" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -5404,7 +5429,7 @@
         <v>159</v>
       </c>
       <c r="AQ16" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -5423,7 +5448,7 @@
         <v>159</v>
       </c>
       <c r="AQ17" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5486,16 +5511,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="11.54296875" collapsed="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="6" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="9" max="15" width="11.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.3">
@@ -5648,13 +5673,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -5769,13 +5794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.54296875" collapsed="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
+    <col min="6" max="6" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
@@ -5816,7 +5841,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5839,7 +5864,7 @@
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5856,7 +5881,7 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5879,11 +5904,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5956,12 +5981,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="2450" windowWidth="14840" windowHeight="4100" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="325">
   <si>
     <t>URL</t>
   </si>
@@ -955,42 +955,6 @@
     <t>95536</t>
   </si>
   <si>
-    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_preview) started successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been updated successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) started successfully.</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview has been added successfully.</t>
-  </si>
-  <si>
-    <t>Campaign Ca_ozonetel_preview Data deleted successfully (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
-  </si>
-  <si>
     <t>DialOutNumber 123456 with santuuuu1 has been added successfully.</t>
   </si>
   <si>
@@ -1025,9 +989,6 @@
   </si>
   <si>
     <t>qa@115#</t>
-  </si>
-  <si>
-    <t>(Ca_ozonetel_preview) stopped successfully.</t>
   </si>
   <si>
     <t>verified: Passed: Phone Number 20102 has been added successfully.
@@ -1042,25 +1003,7 @@
 Note: this may take 2 mins to impact agent login.</t>
   </si>
   <si>
-    <t>header 'Edit' or name or number not matching</t>
-  </si>
-  <si>
-    <t>no data found with deatils:  Name: santuuu   PhNo: 95536</t>
-  </si>
-  <si>
     <t>qa@86#</t>
-  </si>
-  <si>
-    <t>Passed: Phone Number 20102 has been added successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>Phone Number 201020 has been updated successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>Phone Number 201020 has been deleted successfully.
-Note: this may take 2 mins to impact agent login.</t>
   </si>
   <si>
     <t>TransferNumber 95535 has been added successfully.</t>
@@ -1076,8 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1635,16 +1577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1666,7 +1608,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1706,8 +1648,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1689,7 @@
         <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,7 +1712,7 @@
         <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,7 +1735,7 @@
         <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,7 +1758,7 @@
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1835,21 +1777,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="4" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.453125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="12" max="13" width="11.54296875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.26953125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="38.1796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="13" width="39.7265625" collapsed="true"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="11.54296875" collapsed="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
@@ -1969,12 +1911,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="63.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="63.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2125,7 +2067,7 @@
         <v>254</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -2245,16 +2187,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
-    <col min="5" max="5" width="11.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
-    <col min="7" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="34" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.54296875" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
@@ -3392,11 +3334,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
-    <col min="3" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
@@ -3529,9 +3471,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
@@ -4632,9 +4574,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="1" max="1" width="51.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -4656,7 +4598,7 @@
         <v>254</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4692,8 +4634,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
-    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4759,37 +4701,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="18.08984375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
-    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
-    <col min="17" max="17" width="11.54296875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
-    <col min="19" max="21" width="11.54296875" collapsed="true"/>
-    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
-    <col min="23" max="25" width="11.54296875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="27" max="32" width="11.54296875" collapsed="true"/>
-    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
-    <col min="35" max="35" width="11.54296875" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
-    <col min="40" max="41" width="11.54296875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.54296875" collapsed="1"/>
+    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="11.54296875" collapsed="1"/>
+    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
+    <col min="23" max="25" width="11.54296875" collapsed="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
+    <col min="27" max="32" width="11.54296875" collapsed="1"/>
+    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
+    <col min="35" max="35" width="11.54296875" collapsed="1"/>
+    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="11.54296875" collapsed="1"/>
+    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
@@ -5511,16 +5453,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="4" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="6" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="9" max="15" width="11.54296875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="9" max="15" width="11.54296875" collapsed="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.3">
@@ -5673,13 +5615,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
-    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" width="11.54296875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="11.54296875" collapsed="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -5731,7 +5673,7 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5757,7 +5699,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,7 +5713,7 @@
         <v>266</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5794,13 +5736,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
-    <col min="6" max="6" width="11.54296875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
+    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.54296875" collapsed="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
@@ -5841,7 +5783,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5864,7 +5806,7 @@
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5881,7 +5823,7 @@
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5904,11 +5846,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5933,7 +5875,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,7 +5889,7 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,7 +5900,7 @@
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -5981,12 +5923,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
-    <col min="4" max="4" width="11.54296875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
+    <col min="1" max="1" width="11.54296875" collapsed="1"/>
+    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.54296875" collapsed="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6020,7 +5962,7 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6037,7 +5979,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6054,7 +5996,7 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,7 +6007,7 @@
         <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="341">
   <si>
     <t>URL</t>
   </si>
@@ -340,21 +340,12 @@
     <t>SIP</t>
   </si>
   <si>
-    <t>95535</t>
-  </si>
-  <si>
     <t>Transfer Number*</t>
   </si>
   <si>
     <t>New Transfer Number* for Edit</t>
   </si>
   <si>
-    <t>santuu2</t>
-  </si>
-  <si>
-    <t>santuuu</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -943,83 +934,138 @@
     <t>https://ca-test1.cloudagent.in/DashboardPortal/login.jsp</t>
   </si>
   <si>
-    <t>http://10.1.2.76:8080/DashboardPortal/login.jsp;</t>
-  </si>
-  <si>
     <t>https://entmonitor1.getkookoo.com/OCCDV2/login.jsp</t>
   </si>
   <si>
     <t>https://ca-stg1.cloudagent.in/DashboardPortal/login.jsp</t>
   </si>
   <si>
-    <t>95536</t>
+    <t>qa@115#</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Disposition selenium1234 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>9553578723</t>
+  </si>
+  <si>
+    <t>9553578724</t>
+  </si>
+  <si>
+    <t>santuuozo2</t>
+  </si>
+  <si>
+    <t>santuuozo3</t>
   </si>
   <si>
     <t>DialOutNumber 123456 with santuuuu1 has been added successfully.</t>
   </si>
   <si>
+    <t>DialOutNumber 1234567 with santuuuu2 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>DialOutNumber 1234567 with santuuuu2 has been deleted successfully.</t>
   </si>
   <si>
-    <t>DialOutNumber 1234567 with santuuuu2 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Success</t>
+    <t>PauseReason reason1123 has been added successfully.</t>
+  </si>
+  <si>
+    <t>PauseReason reason11234 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>PauseReason reason11234 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>https://admin1.getkookoo.com/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t>enterprise testing_aws</t>
+  </si>
+  <si>
+    <t>https://monitor1.getkookoo.com/OCCDV2/login.jsp</t>
   </si>
   <si>
     <t>Disposition selenium123 has been added successfully.</t>
   </si>
   <si>
-    <t>Disposition selenium1234 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>Disposition selenium1234 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>PauseReason reason1123 has been added successfully.</t>
-  </si>
-  <si>
-    <t>PauseReason reason11234 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>PauseReason reason11234 has been deleted successfully.</t>
-  </si>
-  <si>
-    <t>qa@115#</t>
-  </si>
-  <si>
-    <t>verified: Passed: Phone Number 20102 has been added successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been updated successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>verified: Phone Number 201020 has been deleted successfully.
-Note: this may take 2 mins to impact agent login.</t>
-  </si>
-  <si>
-    <t>qa@86#</t>
-  </si>
-  <si>
-    <t>TransferNumber 95535 has been added successfully.</t>
-  </si>
-  <si>
-    <t>TransferNumber 95536 has been updated successfully.</t>
-  </si>
-  <si>
-    <t>TransferNumber 95536 has been deleted successfully.</t>
+    <t>QWX5Whs</t>
+  </si>
+  <si>
+    <t>Passed: Ph no already exist</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been updated successfully.</t>
+  </si>
+  <si>
+    <t>verified: Phone Number 201020 has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>TransferNumber 9553578723 has been added successfully.</t>
+  </si>
+  <si>
+    <t>header 'Edit' or name or number not matching</t>
+  </si>
+  <si>
+    <t>no data found with deatils:  Name: santuuozo3   PhNo: 9553578724</t>
+  </si>
+  <si>
+    <t>https://monitor1.getkookoo.com/OCCDV2/mainMenu.html</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_preview) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been marked as complete.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview Data reset success (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview Data deleted successfully (Status : ALL, Reason : [ALL], Disposition : [ALL]).</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_preview has been deleted successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been added successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been updated successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) started successfully.</t>
+  </si>
+  <si>
+    <t>(Ca_ozonetel_inbound) stopped successfully.</t>
+  </si>
+  <si>
+    <t>Campaign Ca_ozonetel_inbound has been deleted successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1087,6 +1133,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1109,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,6 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1578,15 +1631,15 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.54296875" collapsed="true"/>
+    <col min="4" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -1600,25 +1653,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>321</v>
+        <v>251</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="manish@ozonetel.com"/>
     <hyperlink ref="A2" r:id="rId2" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
-    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1648,8 +1700,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,22 +1709,22 @@
         <v>79</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>283</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>286</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1680,62 +1732,62 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="C4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>292</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,22 +1795,22 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="C5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1777,118 +1829,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.453125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11.54296875" collapsed="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="38.1796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="39.7265625" style="13" customWidth="1" collapsed="1"/>
-    <col min="18" max="1026" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="4" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="12" max="13" width="11.54296875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="38.1796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="13" width="39.7265625" collapsed="true"/>
+    <col min="18" max="1026" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N2" t="s">
         <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1906,17 +1958,17 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="63.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="63.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,10 +1977,10 @@
       </c>
       <c r="B1" s="16"/>
       <c r="E1" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
         <v>93</v>
@@ -1936,73 +1988,73 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,118 +2062,116 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" t="s">
         <v>196</v>
       </c>
-      <c r="B19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" t="s">
-        <v>199</v>
-      </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
@@ -2130,30 +2180,30 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2187,21 +2237,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.54296875" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="33" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="48.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="1027" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="5" max="5" width="11.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="7" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="34" max="35" width="11.54296875" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="48.26953125" collapsed="true"/>
+    <col min="37" max="1027" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -2210,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -2326,61 +2376,61 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J2" s="9">
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L2" s="9">
         <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="R2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="U2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>61</v>
@@ -2395,7 +2445,7 @@
         <v>61</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>61</v>
@@ -2408,13 +2458,13 @@
       </c>
       <c r="AE2" s="11"/>
       <c r="AF2" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>65</v>
@@ -2427,18 +2477,18 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2514,7 +2564,7 @@
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2532,7 +2582,7 @@
         <v>66</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AN3" t="s">
         <v>58</v>
@@ -2541,28 +2591,28 @@
         <v>58</v>
       </c>
       <c r="AQ3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2585,7 +2635,7 @@
         <v>58</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T4" t="s">
         <v>58</v>
@@ -2622,7 +2672,7 @@
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG4" t="s">
         <v>78</v>
@@ -2637,10 +2687,10 @@
         <v>65</v>
       </c>
       <c r="AL4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN4" t="s">
         <v>58</v>
@@ -2649,28 +2699,28 @@
         <v>58</v>
       </c>
       <c r="AQ4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -2726,11 +2776,11 @@
         <v>61</v>
       </c>
       <c r="AD5" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG5" t="s">
         <v>78</v>
@@ -2745,40 +2795,40 @@
         <v>65</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AN5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AO5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AQ5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2838,7 +2888,7 @@
       </c>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG6" t="s">
         <v>78</v>
@@ -2854,40 +2904,40 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>259</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -2947,7 +2997,7 @@
       </c>
       <c r="AE7" s="11"/>
       <c r="AF7" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG7" t="s">
         <v>78</v>
@@ -2966,31 +3016,31 @@
         <v>66</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3046,11 +3096,11 @@
         <v>62</v>
       </c>
       <c r="AD8" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AE8" s="11"/>
       <c r="AF8" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG8" t="s">
         <v>78</v>
@@ -3066,42 +3116,42 @@
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AQ8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1" t="s">
@@ -3151,7 +3201,7 @@
       </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG9" t="s">
         <v>78</v>
@@ -3170,15 +3220,15 @@
         <v>66</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -3252,7 +3302,7 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s">
         <v>78</v>
@@ -3271,10 +3321,10 @@
         <v>66</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3334,33 +3384,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="66.81640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.26953125" collapsed="true"/>
+    <col min="3" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="66.81640625" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -3374,44 +3424,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -3420,15 +3470,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -3437,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3471,67 +3521,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -3546,16 +3596,16 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -3567,21 +3617,21 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3592,24 +3642,24 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -3617,525 +3667,525 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>63</v>
@@ -4144,414 +4194,414 @@
         <v>63</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P19" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>63</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4569,14 +4619,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -4590,25 +4640,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>321</v>
+        <v>251</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
     <hyperlink ref="B2" r:id="rId2" display="manish@ozonetel.com"/>
-    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4629,13 +4678,13 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="1025" width="11.54296875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.1796875" collapsed="true"/>
+    <col min="2" max="1025" style="1" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4657,19 +4706,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4701,42 +4750,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="12" width="17.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="17.7265625" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="11.54296875" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.54296875" collapsed="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="11.54296875" collapsed="1"/>
-    <col min="22" max="22" width="11.54296875" style="1" collapsed="1"/>
-    <col min="23" max="25" width="11.54296875" collapsed="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1" collapsed="1"/>
-    <col min="27" max="32" width="11.54296875" collapsed="1"/>
-    <col min="33" max="34" width="11.54296875" style="1" collapsed="1"/>
-    <col min="35" max="35" width="11.54296875" collapsed="1"/>
-    <col min="36" max="36" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="17" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="91.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="11.54296875" collapsed="1"/>
-    <col min="43" max="43" width="44.26953125" customWidth="1" collapsed="1"/>
-    <col min="44" max="1028" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="18.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.81640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.81640625" collapsed="true"/>
+    <col min="8" max="12" customWidth="true" style="1" width="17.7265625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="15" max="16" style="1" width="11.54296875" collapsed="true"/>
+    <col min="17" max="17" width="11.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="19" max="21" width="11.54296875" collapsed="true"/>
+    <col min="22" max="22" style="1" width="11.54296875" collapsed="true"/>
+    <col min="23" max="25" width="11.54296875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="27" max="32" width="11.54296875" collapsed="true"/>
+    <col min="33" max="34" style="1" width="11.54296875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="91.90625" collapsed="true"/>
+    <col min="40" max="41" width="11.54296875" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="44.26953125" collapsed="true"/>
+    <col min="44" max="1028" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -4745,7 +4794,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -4859,7 +4908,7 @@
         <v>47</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>48</v>
@@ -4867,13 +4916,13 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>51</v>
@@ -4944,7 +4993,7 @@
         <v>61</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG2" t="s">
         <v>64</v>
@@ -4962,7 +5011,7 @@
         <v>66</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AN2" t="s">
         <v>58</v>
@@ -4971,18 +5020,18 @@
         <v>58</v>
       </c>
       <c r="AQ2" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>51</v>
@@ -4994,18 +5043,18 @@
         <v>53</v>
       </c>
       <c r="AQ3" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>51</v>
@@ -5017,18 +5066,18 @@
         <v>53</v>
       </c>
       <c r="AQ4" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>51</v>
@@ -5040,18 +5089,18 @@
         <v>53</v>
       </c>
       <c r="AQ5" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>51</v>
@@ -5063,18 +5112,18 @@
         <v>53</v>
       </c>
       <c r="AQ6" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>51</v>
@@ -5086,18 +5135,18 @@
         <v>53</v>
       </c>
       <c r="AQ7" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>51</v>
@@ -5109,18 +5158,18 @@
         <v>53</v>
       </c>
       <c r="AQ8" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>51</v>
@@ -5132,21 +5181,21 @@
         <v>53</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AQ9" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>51</v>
@@ -5158,18 +5207,18 @@
         <v>53</v>
       </c>
       <c r="AQ10" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>51</v>
@@ -5181,18 +5230,18 @@
         <v>53</v>
       </c>
       <c r="AQ11" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>51</v>
@@ -5204,65 +5253,65 @@
         <v>53</v>
       </c>
       <c r="AQ12" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J13" s="9">
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L13" s="9">
         <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="Q13" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="R13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T13" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="U13" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>61</v>
@@ -5277,7 +5326,7 @@
         <v>61</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AB13" s="9" t="s">
         <v>61</v>
@@ -5290,13 +5339,13 @@
       </c>
       <c r="AE13" s="11"/>
       <c r="AF13" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>65</v>
@@ -5309,88 +5358,88 @@
         <v>66</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AQ13" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AQ14" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AQ15" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AQ16" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AQ17" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5453,16 +5502,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="11.54296875" collapsed="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1" collapsed="1"/>
-    <col min="17" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="6" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="9" max="15" width="11.54296875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.7265625" collapsed="true"/>
+    <col min="17" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.3">
@@ -5520,21 +5569,21 @@
         <v>93</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K2" t="s">
         <v>63</v>
@@ -5552,32 +5601,32 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5610,18 +5659,18 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="11.54296875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="11.54296875" collapsed="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="9" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="6" style="1" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" width="11.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="9" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.3">
@@ -5652,19 +5701,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>60</v>
@@ -5673,7 +5722,7 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5681,16 +5730,16 @@
         <v>94</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>57</v>
@@ -5699,7 +5748,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5707,13 +5756,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5731,21 +5780,21 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.54296875" collapsed="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1" collapsed="1"/>
-    <col min="8" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" style="1" width="11.54296875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="1" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="21.7265625" collapsed="true"/>
+    <col min="6" max="6" width="11.54296875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="8" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -5756,10 +5805,10 @@
         <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>100</v>
@@ -5768,62 +5817,65 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>305</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5846,11 +5898,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.26953125" collapsed="true"/>
+    <col min="5" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5858,10 +5910,10 @@
         <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>48</v>
@@ -5869,13 +5921,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,13 +5935,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,10 +5949,10 @@
         <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5923,12 +5975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" collapsed="1"/>
-    <col min="2" max="2" width="24.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.54296875" collapsed="1"/>
-    <col min="5" max="5" width="36.453125" customWidth="1" collapsed="1"/>
-    <col min="6" max="1025" width="11.54296875" collapsed="1"/>
+    <col min="1" max="1" width="11.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="25.1796875" collapsed="true"/>
+    <col min="4" max="4" width="11.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.453125" collapsed="true"/>
+    <col min="6" max="1025" width="11.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5936,13 +5988,13 @@
         <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
@@ -5953,16 +6005,16 @@
         <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5970,33 +6022,33 @@
         <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6004,10 +6056,10 @@
         <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
